--- a/bad information mining/bookoutput1.xlsx
+++ b/bad information mining/bookoutput1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A网络安全中心总文件\a多元多端不良信息检测\github\Bad-information-mining\bad information mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2D05F4-D8C4-425E-9C18-A26FD208D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C79399-247D-4DD9-8038-AB6142932C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1271">
   <si>
     <t>clik</t>
   </si>
@@ -2789,6 +2789,1050 @@
   </si>
   <si>
     <t>https://www.83ks.net/book/583/</t>
+  </si>
+  <si>
+    <t>('/kan/21111.html', 'http://www.aishuge.cc/kan/21111.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/21111.html</t>
+  </si>
+  <si>
+    <t>("javascript:BookVote('485265');", "javascript:BookVote('485265');")</t>
+  </si>
+  <si>
+    <t>javascript:BookVote('485265');</t>
+  </si>
+  <si>
+    <t>('/sort/4_0_0_0_0_1.html', 'http://www.aishuge.cc/sort/4_0_0_0_0_1.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/sort/4_0_0_0_0_1.html</t>
+  </si>
+  <si>
+    <t>('272995.html', 'http://www.aishuge.cc/kan/132/132357/272995.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/132/132357/272995.html</t>
+  </si>
+  <si>
+    <t>('272742.html', 'http://www.aishuge.cc/kan/132/132357/272742.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/132/132357/272742.html</t>
+  </si>
+  <si>
+    <t>('272538.html', 'http://www.aishuge.cc/kan/132/132357/272538.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/132/132357/272538.html</t>
+  </si>
+  <si>
+    <t>('791682.html', 'http://www.aishuge.cc/kan/391/391515/791682.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/391/391515/791682.html</t>
+  </si>
+  <si>
+    <t>('792252.html', 'http://www.aishuge.cc/kan/391/391515/792252.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/391/391515/792252.html</t>
+  </si>
+  <si>
+    <t>('792263.html', 'http://www.aishuge.cc/kan/391/391515/792263.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/391/391515/792263.html</t>
+  </si>
+  <si>
+    <t>('/kan/8254.html', 'http://www.aishuge.cc/kan/8254.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/8254.html</t>
+  </si>
+  <si>
+    <t>('/kan/26754.html', 'http://www.aishuge.cc/kan/26754.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/26754.html</t>
+  </si>
+  <si>
+    <t>('/kan/23094.html', 'http://www.aishuge.cc/kan/23094.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/23094.html</t>
+  </si>
+  <si>
+    <t>('/books/26928416/', 'https://www.lakanshu.com/books/26928416/')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/books/26928416/</t>
+  </si>
+  <si>
+    <t>('/books/92059518/', 'https://www.lakanshu.com/books/92059518/')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/books/92059518/</t>
+  </si>
+  <si>
+    <t>('/read/730/22482320.html', 'https://www.lakanshu.com/read/730/22482320.html')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/read/730/22482320.html</t>
+  </si>
+  <si>
+    <t>('/read/86304/2453780.html', 'https://www.lakanshu.com/read/86304/2453780.html')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/read/86304/2453780.html</t>
+  </si>
+  <si>
+    <t>('/index/86304/2/', 'https://www.lakanshu.com/index/86304/2/')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/index/86304/2/</t>
+  </si>
+  <si>
+    <t>('/read/86304/2453771.html', 'https://www.lakanshu.com/read/86304/2453771.html')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/read/86304/2453771.html</t>
+  </si>
+  <si>
+    <t>('/history.html', 'https://www.lakanshu.com/history.html')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/history.html</t>
+  </si>
+  <si>
+    <t>('/sort/2/1/', 'https://www.lakanshu.com/sort/2/1/')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/sort/2/1/</t>
+  </si>
+  <si>
+    <t>('/login/', 'https://www.lakanshu.com/login/')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/login/</t>
+  </si>
+  <si>
+    <t>('#', 'https://www.lakanshu.com/read/3876/22515256.html')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/read/3876/22515256.html</t>
+  </si>
+  <si>
+    <t>('/read/52778/17100451.html', 'http://www.55txt.co/read/52778/17100451.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/52778/17100451.html</t>
+  </si>
+  <si>
+    <t>('/html/kehuanxiaoshuo/list_1.html', 'http://www.55txt.co/html/kehuanxiaoshuo/list_1.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/html/kehuanxiaoshuo/list_1.html</t>
+  </si>
+  <si>
+    <t>('/read/52778/17100492.html', 'http://www.55txt.co/read/52778/17100492.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/52778/17100492.html</t>
+  </si>
+  <si>
+    <t>('/read/89332/31862148.html', 'http://www.55txt.co/read/89332/31862148.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/89332/31862148.html</t>
+  </si>
+  <si>
+    <t>('/read/89332/31862235.html', 'http://www.55txt.co/read/89332/31862235.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/89332/31862235.html</t>
+  </si>
+  <si>
+    <t>('/read/89332/31862340.html', 'http://www.55txt.co/read/89332/31862340.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/89332/31862340.html</t>
+  </si>
+  <si>
+    <t>('/read/74593/24684509.html', 'http://www.55txt.co/read/74593/24684509.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/74593/24684509.html</t>
+  </si>
+  <si>
+    <t>('/read/74593/24684520.html', 'http://www.55txt.co/read/74593/24684520.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/74593/24684520.html</t>
+  </si>
+  <si>
+    <t>('/read/74593/24684549.html', 'http://www.55txt.co/read/74593/24684549.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/74593/24684549.html</t>
+  </si>
+  <si>
+    <t>('/read/83698/28209239.html', 'http://www.55txt.co/read/83698/28209239.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/83698/28209239.html</t>
+  </si>
+  <si>
+    <t>('/read/83698/28209100.html', 'http://www.55txt.co/read/83698/28209100.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/83698/28209100.html</t>
+  </si>
+  <si>
+    <t>('/read/83698/28209205.html', 'http://www.55txt.co/read/83698/28209205.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/83698/28209205.html</t>
+  </si>
+  <si>
+    <t>('/top/0/0/1.html', 'https://h.x360xs.com/top/0/0/1.html')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/top/0/0/1.html</t>
+  </si>
+  <si>
+    <t>('javascript:Common.addToBookshelf(265264);', 'javascript:Common.addToBookshelf(265264);')</t>
+  </si>
+  <si>
+    <t>javascript:Common.addToBookshelf(265264);</t>
+  </si>
+  <si>
+    <t>('/book/265264/', 'https://h.x360xs.com/book/265264/')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/265264/</t>
+  </si>
+  <si>
+    <t>('javascript:Cmsg.CloseMsgBox()', 'javascript:Cmsg.CloseMsgBox()')</t>
+  </si>
+  <si>
+    <t>javascript:Cmsg.CloseMsgBox()</t>
+  </si>
+  <si>
+    <t>('/book/264788/126726408.html', 'https://h.x360xs.com/book/264788/126726408.html')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/264788/126726408.html</t>
+  </si>
+  <si>
+    <t>('javascript:Common.addToBookshelf(264788);', 'javascript:Common.addToBookshelf(264788);')</t>
+  </si>
+  <si>
+    <t>javascript:Common.addToBookshelf(264788);</t>
+  </si>
+  <si>
+    <t>('/book/307202/', 'https://h.x360xs.com/book/307202/')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/307202/</t>
+  </si>
+  <si>
+    <t>('/book/307202/0/1.html', 'https://h.x360xs.com/book/307202/0/1.html')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/307202/0/1.html</t>
+  </si>
+  <si>
+    <t>('/book/307203/0/1.html', 'https://h.x360xs.com/book/307203/0/1.html')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/307203/0/1.html</t>
+  </si>
+  <si>
+    <t>('/book/307203/128467025.html', 'https://h.x360xs.com/book/307203/128467025.html')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/307203/128467025.html</t>
+  </si>
+  <si>
+    <t>('/book/307203/', 'https://h.x360xs.com/book/307203/')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/307203/</t>
+  </si>
+  <si>
+    <t>('/38_38984/2948084.html', 'http://www.wuxianliuxs.com/38_38984/2948084.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/38_38984/2948084.html</t>
+  </si>
+  <si>
+    <t>('/38_38984/2948881.html', 'http://www.wuxianliuxs.com/38_38984/2948881.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/38_38984/2948881.html</t>
+  </si>
+  <si>
+    <t>('/38_38984/2950902.html', 'http://www.wuxianliuxs.com/38_38984/2950902.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/38_38984/2950902.html</t>
+  </si>
+  <si>
+    <t>('/200_200674/3859862.html', 'http://www.wuxianliuxs.com/200_200674/3859862.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/200_200674/3859862.html</t>
+  </si>
+  <si>
+    <t>('/200_200674/3864718.html', 'http://www.wuxianliuxs.com/200_200674/3864718.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/200_200674/3864718.html</t>
+  </si>
+  <si>
+    <t>('/200_200674/3860572.html', 'http://www.wuxianliuxs.com/200_200674/3860572.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/200_200674/3860572.html</t>
+  </si>
+  <si>
+    <t>('/45_45810/5958534.html', 'http://www.wuxianliuxs.com/45_45810/5958534.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/45_45810/5958534.html</t>
+  </si>
+  <si>
+    <t>('/45_45810/5953809.html', 'http://www.wuxianliuxs.com/45_45810/5953809.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/45_45810/5953809.html</t>
+  </si>
+  <si>
+    <t>('/45_45810/5953402.html', 'http://www.wuxianliuxs.com/45_45810/5953402.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/45_45810/5953402.html</t>
+  </si>
+  <si>
+    <t>('#', 'http://www.wuxianliuxs.com/55_55988/3884730.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/55_55988/3884730.html</t>
+  </si>
+  <si>
+    <t>('/55_55988/', 'http://www.wuxianliuxs.com/55_55988/')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/55_55988/</t>
+  </si>
+  <si>
+    <t>('/55_55988/3884730_2.html', 'http://www.wuxianliuxs.com/55_55988/3884730_2.html')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/55_55988/3884730_2.html</t>
+  </si>
+  <si>
+    <t>('/book/814/', 'https://www.wmshijie.cc/book/814/')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/814/</t>
+  </si>
+  <si>
+    <t>('/book/1606/', 'https://www.wmshijie.cc/book/1606/')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/1606/</t>
+  </si>
+  <si>
+    <t>('/book/2623/', 'https://www.wmshijie.cc/book/2623/')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/2623/</t>
+  </si>
+  <si>
+    <t>('/book/690/6421.html', 'https://www.wmshijie.cc/book/690/6421.html')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/690/6421.html</t>
+  </si>
+  <si>
+    <t>('/book/690/1138.html', 'https://www.wmshijie.cc/book/690/1138.html')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/690/1138.html</t>
+  </si>
+  <si>
+    <t>('/book/4045/575062.html', 'https://www.wmshijie.cc/book/4045/575062.html')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/4045/575062.html</t>
+  </si>
+  <si>
+    <t>('/book/4045/575051.html', 'https://www.wmshijie.cc/book/4045/575051.html')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/4045/575051.html</t>
+  </si>
+  <si>
+    <t>('/book/1818/236480.html', 'https://www.wmshijie.cc/book/1818/236480.html')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/1818/236480.html</t>
+  </si>
+  <si>
+    <t>('/book/1818/236406.html', 'https://www.wmshijie.cc/book/1818/236406.html')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/1818/236406.html</t>
+  </si>
+  <si>
+    <t>('/rank.html', 'https://www.66dushu.com/rank.html')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/rank.html</t>
+  </si>
+  <si>
+    <t>('/sort/5/1/', 'https://www.66dushu.com/sort/5/1/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/sort/5/1/</t>
+  </si>
+  <si>
+    <t>('/read/74047/8210072.html', 'https://www.66dushu.com/read/74047/8210072.html')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/read/74047/8210072.html</t>
+  </si>
+  <si>
+    <t>('/indexs/147794896/', 'https://www.66dushu.com/indexs/147794896/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/indexs/147794896/</t>
+  </si>
+  <si>
+    <t>('/indexs/649100537/', 'https://www.66dushu.com/indexs/649100537/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/indexs/649100537/</t>
+  </si>
+  <si>
+    <t>('/indexs/10858085/', 'https://www.66dushu.com/indexs/10858085/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/indexs/10858085/</t>
+  </si>
+  <si>
+    <t>('/indexs/2101345173/', 'https://www.66dushu.com/indexs/2101345173/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/indexs/2101345173/</t>
+  </si>
+  <si>
+    <t>('/indexs/109066888/', 'https://www.66dushu.com/indexs/109066888/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/indexs/109066888/</t>
+  </si>
+  <si>
+    <t>('/read/686/1649761.html', 'https://www.66dushu.com/read/686/1649761.html')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/read/686/1649761.html</t>
+  </si>
+  <si>
+    <t>('/read/200732/188535.html', 'https://www.66dushu.com/read/200732/188535.html')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/read/200732/188535.html</t>
+  </si>
+  <si>
+    <t>('/indexs/3045742301/', 'https://www.66dushu.com/indexs/3045742301/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/indexs/3045742301/</t>
+  </si>
+  <si>
+    <t>('/read/200732/188587.html', 'https://www.66dushu.com/read/200732/188587.html')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/read/200732/188587.html</t>
+  </si>
+  <si>
+    <t>('http://www.shucong.com/book/37017.htm', 'http://www.shucong.com/book/37017.htm')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/book/37017.htm</t>
+  </si>
+  <si>
+    <t>('http://www.shucong.com/book/38702.htm', 'http://www.shucong.com/book/38702.htm')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/book/38702.htm</t>
+  </si>
+  <si>
+    <t>('http://www.shucong.com/user/29983189.html', 'http://www.shucong.com/user/29983189.html')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/user/29983189.html</t>
+  </si>
+  <si>
+    <t>('/book/38408.htm', 'http://www.shucong.com/book/38408.htm')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/book/38408.htm</t>
+  </si>
+  <si>
+    <t>('#', 'http://www.shucong.com/book/37386.htm')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/book/37386.htm</t>
+  </si>
+  <si>
+    <t>('#', 'http://www.shucong.com/read/39289/16175808.html')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/read/39289/16175808.html</t>
+  </si>
+  <si>
+    <t>('http://www.shucong.com/article/bcView', 'http://www.shucong.com/article/bcView')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/article/bcView</t>
+  </si>
+  <si>
+    <t>('/sort/10/1.html', 'http://www.72xsw.cc/sort/10/1.html')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/sort/10/1.html</t>
+  </si>
+  <si>
+    <t>('/down/232282/', 'http://www.72xsw.cc/down/232282/')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/down/232282/</t>
+  </si>
+  <si>
+    <t>('/sort/1/1.html', 'http://www.72xsw.cc/sort/1/1.html')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/sort/1/1.html</t>
+  </si>
+  <si>
+    <t>('/down/250773/', 'http://www.72xsw.cc/down/250773/')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/down/250773/</t>
+  </si>
+  <si>
+    <t>('/book/250773/#zjlist', 'http://www.72xsw.cc/book/250773/#zjlist')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/book/250773/#zjlist</t>
+  </si>
+  <si>
+    <t>('/sort/11/1.html', 'http://www.72xsw.cc/sort/11/1.html')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/sort/11/1.html</t>
+  </si>
+  <si>
+    <t>('/book/281884/', 'http://www.72xsw.cc/book/281884/')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/book/281884/</t>
+  </si>
+  <si>
+    <t>('/book/266311/', 'http://www.72xsw.cc/book/266311/')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/book/266311/</t>
+  </si>
+  <si>
+    <t>('/html/2214839.html', 'http://m.txtshu365.org/html/2214839.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/2214839.html</t>
+  </si>
+  <si>
+    <t>('/html/2214840.html', 'http://m.txtshu365.org/html/2214840.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/2214840.html</t>
+  </si>
+  <si>
+    <t>('/html/2034926.html', 'http://m.txtshu365.org/html/2034926.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/2034926.html</t>
+  </si>
+  <si>
+    <t>('/html/141219.html', 'http://m.txtshu365.org/html/141219.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/141219.html</t>
+  </si>
+  <si>
+    <t>('/html/2197184.html', 'http://m.txtshu365.org/html/2197184.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/2197184.html</t>
+  </si>
+  <si>
+    <t>('/html/114709.html', 'http://m.txtshu365.org/html/114709.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/114709.html</t>
+  </si>
+  <si>
+    <t>('/html/1771943.html', 'http://m.txtshu365.org/html/1771943.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/1771943.html</t>
+  </si>
+  <si>
+    <t>('/html/1852868.html', 'http://m.txtshu365.org/html/1852868.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/1852868.html</t>
+  </si>
+  <si>
+    <t>('/html/12541.html', 'http://m.txtshu365.org/html/12541.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/12541.html</t>
+  </si>
+  <si>
+    <t>('/html/1587304.html', 'http://m.txtshu365.org/html/1587304.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/1587304.html</t>
+  </si>
+  <si>
+    <t>('/html/451176.html', 'http://m.txtshu365.org/html/451176.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/451176.html</t>
+  </si>
+  <si>
+    <t>('/html/357819.html', 'http://m.txtshu365.org/html/357819.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/html/357819.html</t>
+  </si>
+  <si>
+    <t>('http://www.fbook.net/read/3865051455245254656', 'http://www.fbook.net/read/3865051455245254656')</t>
+  </si>
+  <si>
+    <t>http://www.fbook.net/read/3865051455245254656</t>
+  </si>
+  <si>
+    <t>('http://www.fbook.net/read/3865051455278809088', 'http://www.fbook.net/read/3865051455278809088')</t>
+  </si>
+  <si>
+    <t>http://www.fbook.net/read/3865051455278809088</t>
+  </si>
+  <si>
+    <t>('http://www.fbook.net/book/3865050816964460544', 'http://www.fbook.net/book/3865050816964460544')</t>
+  </si>
+  <si>
+    <t>http://www.fbook.net/book/3865050816964460544</t>
+  </si>
+  <si>
+    <t>('/read/59526/172.html', 'http://www.shuhai.com/read/59526/172.html')</t>
+  </si>
+  <si>
+    <t>http://www.shuhai.com/read/59526/172.html</t>
+  </si>
+  <si>
+    <t>('/read/59526/38.html', 'http://www.shuhai.com/read/59526/38.html')</t>
+  </si>
+  <si>
+    <t>http://www.shuhai.com/read/59526/38.html</t>
+  </si>
+  <si>
+    <t>('/read/59526/78.html', 'http://www.shuhai.com/read/59526/78.html')</t>
+  </si>
+  <si>
+    <t>http://www.shuhai.com/read/59526/78.html</t>
+  </si>
+  <si>
+    <t>('http://www.tiandizw.com/newbookinfo/1121045.html', 'http://www.tiandizw.com/newbookinfo/1121045.html')</t>
+  </si>
+  <si>
+    <t>http://www.tiandizw.com/newbookinfo/1121045.html</t>
+  </si>
+  <si>
+    <t>('javascript:reg();', 'javascript:reg();')</t>
+  </si>
+  <si>
+    <t>javascript:reg();</t>
+  </si>
+  <si>
+    <t>('http://www.tiandizw.com/newbookinfo/1121050.html', 'http://www.tiandizw.com/newbookinfo/1121050.html')</t>
+  </si>
+  <si>
+    <t>http://www.tiandizw.com/newbookinfo/1121050.html</t>
+  </si>
+  <si>
+    <t>('/kan/485/485265/978710.html', 'http://www.aishuge.cc/kan/485/485265/978710.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/485/485265/978710.html</t>
+  </si>
+  <si>
+    <t>('/kan/132/132357/', 'http://www.aishuge.cc/kan/132/132357/')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/132/132357/</t>
+  </si>
+  <si>
+    <t>('/kan/391/391515/', 'http://www.aishuge.cc/kan/391/391515/')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/391/391515/</t>
+  </si>
+  <si>
+    <t>('/kan/491/491406/990908.html', 'http://www.aishuge.cc/kan/491/491406/990908.html')</t>
+  </si>
+  <si>
+    <t>http://www.aishuge.cc/kan/491/491406/990908.html</t>
+  </si>
+  <si>
+    <t>('/book/730/', 'https://www.lakanshu.com/book/730/')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/book/730/</t>
+  </si>
+  <si>
+    <t>('/book/86304/', 'https://www.lakanshu.com/book/86304/')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/book/86304/</t>
+  </si>
+  <si>
+    <t>('/read/54012/5978527.html', 'https://www.lakanshu.com/read/54012/5978527.html')</t>
+  </si>
+  <si>
+    <t>https://www.lakanshu.com/read/54012/5978527.html</t>
+  </si>
+  <si>
+    <t>('/read/3876/22515256.html', 'https://www.lakanshu.com/read/3876/22515256.html')</t>
+  </si>
+  <si>
+    <t>('/read/txt52778.html', 'http://www.55txt.co/read/txt52778.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/txt52778.html</t>
+  </si>
+  <si>
+    <t>('/read/txt89332.html', 'http://www.55txt.co/read/txt89332.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/txt89332.html</t>
+  </si>
+  <si>
+    <t>('/read/txt74593.html', 'http://www.55txt.co/read/txt74593.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/txt74593.html</t>
+  </si>
+  <si>
+    <t>('/read/txt83698.html', 'http://www.55txt.co/read/txt83698.html')</t>
+  </si>
+  <si>
+    <t>http://www.55txt.co/read/txt83698.html</t>
+  </si>
+  <si>
+    <t>('/book/264788/', 'https://h.x360xs.com/book/264788/')</t>
+  </si>
+  <si>
+    <t>https://h.x360xs.com/book/264788/</t>
+  </si>
+  <si>
+    <t>('/38_38984/', 'http://www.wuxianliuxs.com/38_38984/')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/38_38984/</t>
+  </si>
+  <si>
+    <t>('/200_200674/', 'http://www.wuxianliuxs.com/200_200674/')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/200_200674/</t>
+  </si>
+  <si>
+    <t>('/45_45810/', 'http://www.wuxianliuxs.com/45_45810/')</t>
+  </si>
+  <si>
+    <t>http://www.wuxianliuxs.com/45_45810/</t>
+  </si>
+  <si>
+    <t>('/55_55988/3884730.html', 'http://www.wuxianliuxs.com/55_55988/3884730.html')</t>
+  </si>
+  <si>
+    <t>('/17/17677/', 'https://www.gongxiangxiu.com/17/17677/')</t>
+  </si>
+  <si>
+    <t>https://www.gongxiangxiu.com/17/17677/</t>
+  </si>
+  <si>
+    <t>('/book/4059/575546.html', 'https://www.wmshijie.cc/book/4059/575546.html')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/4059/575546.html</t>
+  </si>
+  <si>
+    <t>('/book/690/', 'https://www.wmshijie.cc/book/690/')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/690/</t>
+  </si>
+  <si>
+    <t>('/book/4045/', 'https://www.wmshijie.cc/book/4045/')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/4045/</t>
+  </si>
+  <si>
+    <t>('/book/1818/', 'https://www.wmshijie.cc/book/1818/')</t>
+  </si>
+  <si>
+    <t>https://www.wmshijie.cc/book/1818/</t>
+  </si>
+  <si>
+    <t>('/index/10678/', 'https://www.66dushu.com/index/10678/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/index/10678/</t>
+  </si>
+  <si>
+    <t>('/index/686/', 'https://www.66dushu.com/index/686/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/index/686/</t>
+  </si>
+  <si>
+    <t>('/index/200732/', 'https://www.66dushu.com/index/200732/')</t>
+  </si>
+  <si>
+    <t>https://www.66dushu.com/index/200732/</t>
+  </si>
+  <si>
+    <t>('/1688899412.html', 'https://m.haiousw.com/1688899412.html')</t>
+  </si>
+  <si>
+    <t>https://m.haiousw.com/1688899412.html</t>
+  </si>
+  <si>
+    <t>('https://www.wxxsw.cc/1_1258/', 'https://www.wxxsw.cc/1_1258/')</t>
+  </si>
+  <si>
+    <t>https://www.wxxsw.cc/1_1258/</t>
+  </si>
+  <si>
+    <t>('/txt/254173563.html', 'https://m.boduks.com/txt/254173563.html')</t>
+  </si>
+  <si>
+    <t>https://m.boduks.com/txt/254173563.html</t>
+  </si>
+  <si>
+    <t>('/sort/7/1/', 'https://xiaoqiang123.com/sort/7/1/')</t>
+  </si>
+  <si>
+    <t>https://xiaoqiang123.com/sort/7/1/</t>
+  </si>
+  <si>
+    <t>('http://www.shucong.com/book/7834.htm', 'http://www.shucong.com/book/7834.htm')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/book/7834.htm</t>
+  </si>
+  <si>
+    <t>('http://www.shucong.com/book/38422.htm', 'http://www.shucong.com/book/38422.htm')</t>
+  </si>
+  <si>
+    <t>http://www.shucong.com/book/38422.htm</t>
+  </si>
+  <si>
+    <t>('/book/37386.htm', 'http://www.shucong.com/book/37386.htm')</t>
+  </si>
+  <si>
+    <t>('http://www.shucong.com/read/39289/16175808.html', 'http://www.shucong.com/read/39289/16175808.html')</t>
+  </si>
+  <si>
+    <t>('/xiaoshuo/vubf/13.html', 'https://www.wuwusk.com/xiaoshuo/vubf/13.html')</t>
+  </si>
+  <si>
+    <t>https://www.wuwusk.com/xiaoshuo/vubf/13.html</t>
+  </si>
+  <si>
+    <t>('/html/154863/176986320.html', 'https://www.fqxsw.org/html/154863/176986320.html')</t>
+  </si>
+  <si>
+    <t>https://www.fqxsw.org/html/154863/176986320.html</t>
+  </si>
+  <si>
+    <t>('https://op.fi11cc88.com', 'https://op.fi11cc88.com')</t>
+  </si>
+  <si>
+    <t>https://op.fi11cc88.com</t>
+  </si>
+  <si>
+    <t>('/xs/n5XA.html', 'https://m.xiguasw.com/xs/n5XA.html')</t>
+  </si>
+  <si>
+    <t>https://m.xiguasw.com/xs/n5XA.html</t>
+  </si>
+  <si>
+    <t>('/book/10002893', 'https://www.9yread.com/book/10002893')</t>
+  </si>
+  <si>
+    <t>https://www.9yread.com/book/10002893</t>
+  </si>
+  <si>
+    <t>('https://www.cloudflare.com?utm_source=challenge&amp;utm_campaign=m', 'https://www.cloudflare.com?utm_source=challenge&amp;utm_campaign=m')</t>
+  </si>
+  <si>
+    <t>https://www.cloudflare.com?utm_source=challenge&amp;utm_campaign=m</t>
+  </si>
+  <si>
+    <t>('/down/311045/', 'http://www.72xsw.cc/down/311045/')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/down/311045/</t>
+  </si>
+  <si>
+    <t>('/read/250773/79/759.html', 'http://www.72xsw.cc/read/250773/79/759.html')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/read/250773/79/759.html</t>
+  </si>
+  <si>
+    <t>('/read/56462/79/3280.html', 'http://www.72xsw.cc/read/56462/79/3280.html')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/read/56462/79/3280.html</t>
+  </si>
+  <si>
+    <t>('/down/264312/', 'http://www.72xsw.cc/down/264312/')</t>
+  </si>
+  <si>
+    <t>http://www.72xsw.cc/down/264312/</t>
+  </si>
+  <si>
+    <t>('/jingjixiaoshuo/top.html', 'https://m.seshuku.com/jingjixiaoshuo/top.html')</t>
+  </si>
+  <si>
+    <t>https://m.seshuku.com/jingjixiaoshuo/top.html</t>
+  </si>
+  <si>
+    <t>('http://m.txtshu365.org/book/59764.html', 'http://m.txtshu365.org/book/59764.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/book/59764.html</t>
+  </si>
+  <si>
+    <t>('http://m.txtshu365.org/book/12039.html', 'http://m.txtshu365.org/book/12039.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/book/12039.html</t>
+  </si>
+  <si>
+    <t>('http://m.txtshu365.org/book/48915.html', 'http://m.txtshu365.org/book/48915.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/book/48915.html</t>
+  </si>
+  <si>
+    <t>('http://m.txtshu365.org/book/33545.html', 'http://m.txtshu365.org/book/33545.html')</t>
+  </si>
+  <si>
+    <t>http://m.txtshu365.org/book/33545.html</t>
+  </si>
+  <si>
+    <t>('/tags.php?/游戏异界小说/', 'https://www.huangdizhijia.com/tags.php?/游戏异界小说/')</t>
+  </si>
+  <si>
+    <t>https://www.huangdizhijia.com/tags.php?/游戏异界小说/</t>
+  </si>
+  <si>
+    <t>('/so/', 'https://www.deqixs.com/so/')</t>
+  </si>
+  <si>
+    <t>https://www.deqixs.com/so/</t>
+  </si>
+  <si>
+    <t>('https://post.smzdm.com/fenlei/yuanxiaotangyuan/', 'https://post.smzdm.com/fenlei/yuanxiaotangyuan/')</t>
+  </si>
+  <si>
+    <t>https://post.smzdm.com/fenlei/yuanxiaotangyuan/</t>
+  </si>
+  <si>
+    <t>('http://wpa.qq.com/msgrd?v=3&amp;uin=3007223406&amp;site=天下书盟·客服&amp;menu=yes', 'http://wpa.qq.com/msgrd?v=3&amp;uin=3007223406&amp;site=天下书盟·客服&amp;menu=yes')</t>
+  </si>
+  <si>
+    <t>http://wpa.qq.com/msgrd?v=3&amp;uin=3007223406&amp;site=天下书盟·客服&amp;menu=yes</t>
+  </si>
+  <si>
+    <t>('http://yuedu.163.com/yc', 'http://yuedu.163.com/yc')</t>
+  </si>
+  <si>
+    <t>http://yuedu.163.com/yc</t>
+  </si>
+  <si>
+    <t>('http://www.shuhai.com/book/59526.htm', 'http://www.shuhai.com/book/59526.htm')</t>
+  </si>
+  <si>
+    <t>http://www.shuhai.com/book/59526.htm</t>
+  </si>
+  <si>
+    <t>('//www.17k.com/book/3194076.html', 'https://www.17k.com/book/3194076.html')</t>
+  </si>
+  <si>
+    <t>https://www.17k.com/book/3194076.html</t>
+  </si>
+  <si>
+    <t>('https://www.tianyabook.com/author/%BB%C6%D2%D7.html', 'https://www.tianyabook.com/author/%BB%C6%D2%D7.html')</t>
+  </si>
+  <si>
+    <t>https://www.tianyabook.com/author/%BB%C6%D2%D7.html</t>
+  </si>
+  <si>
+    <t>('/2_2219/', 'https://www.ddyueshu.com/2_2219/')</t>
+  </si>
+  <si>
+    <t>https://www.ddyueshu.com/2_2219/</t>
+  </si>
+  <si>
+    <t>('/book/7370/index.html', 'https://www.hetushu.com/book/7370/index.html')</t>
+  </si>
+  <si>
+    <t>https://www.hetushu.com/book/7370/index.html</t>
+  </si>
+  <si>
+    <t>('/selection/60c4072c0e9d4aa79742adb7aa506a6c', 'https://www.zhuishushenqi.com/selection/60c4072c0e9d4aa79742adb7aa506a6c')</t>
+  </si>
+  <si>
+    <t>https://www.zhuishushenqi.com/selection/60c4072c0e9d4aa79742adb7aa506a6c</t>
+  </si>
+  <si>
+    <t>('/book/3046207/1/?positionid=22', 'https://yc.ifeng.com/book/3046207/1/?positionid=22')</t>
+  </si>
+  <si>
+    <t>https://yc.ifeng.com/book/3046207/1/?positionid=22</t>
+  </si>
+  <si>
+    <t>('http://www.tiandizw.com/', 'http://www.tiandizw.com/')</t>
+  </si>
+  <si>
+    <t>http://www.tiandizw.com/</t>
+  </si>
+  <si>
+    <t>('//chuangshi.qq.com/detail/49382428', 'https://chuangshi.qq.com/detail/49382428')</t>
+  </si>
+  <si>
+    <t>https://chuangshi.qq.com/detail/49382428</t>
   </si>
 </sst>
 </file>
@@ -3176,10 +4220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J563"/>
+  <dimension ref="A1:J760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="U508" sqref="U508"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -21197,6 +22241,6310 @@
         <v>1</v>
       </c>
       <c r="J563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A564" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C564">
+        <v>2</v>
+      </c>
+      <c r="D564">
+        <v>13</v>
+      </c>
+      <c r="E564">
+        <v>51</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
+      <c r="I564">
+        <v>0</v>
+      </c>
+      <c r="J564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A565" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C565">
+        <v>2</v>
+      </c>
+      <c r="D565">
+        <v>5</v>
+      </c>
+      <c r="E565">
+        <v>36</v>
+      </c>
+      <c r="F565">
+        <v>1</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+      <c r="I565">
+        <v>1</v>
+      </c>
+      <c r="J565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A566" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+      <c r="D566">
+        <v>9</v>
+      </c>
+      <c r="E566">
+        <v>225</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566">
+        <v>0</v>
+      </c>
+      <c r="I566">
+        <v>0</v>
+      </c>
+      <c r="J566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A567" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+      <c r="D567">
+        <v>7</v>
+      </c>
+      <c r="E567">
+        <v>23</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567">
+        <v>0</v>
+      </c>
+      <c r="I567">
+        <v>0</v>
+      </c>
+      <c r="J567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A568" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568">
+        <v>9</v>
+      </c>
+      <c r="E568">
+        <v>83</v>
+      </c>
+      <c r="F568">
+        <v>1</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+      <c r="H568">
+        <v>0</v>
+      </c>
+      <c r="I568">
+        <v>0</v>
+      </c>
+      <c r="J568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A569" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C569">
+        <v>2</v>
+      </c>
+      <c r="D569">
+        <v>10</v>
+      </c>
+      <c r="E569">
+        <v>81</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569">
+        <v>0</v>
+      </c>
+      <c r="I569">
+        <v>0</v>
+      </c>
+      <c r="J569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A570" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>5</v>
+      </c>
+      <c r="E570">
+        <v>29</v>
+      </c>
+      <c r="F570">
+        <v>1</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+      <c r="I570">
+        <v>0</v>
+      </c>
+      <c r="J570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A571" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C571">
+        <v>0</v>
+      </c>
+      <c r="D571">
+        <v>6</v>
+      </c>
+      <c r="E571">
+        <v>637</v>
+      </c>
+      <c r="F571">
+        <v>1</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571">
+        <v>0</v>
+      </c>
+      <c r="I571">
+        <v>0</v>
+      </c>
+      <c r="J571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A572" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C572">
+        <v>2</v>
+      </c>
+      <c r="D572">
+        <v>10</v>
+      </c>
+      <c r="E572">
+        <v>79</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572">
+        <v>0</v>
+      </c>
+      <c r="I572">
+        <v>1</v>
+      </c>
+      <c r="J572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A573" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C573">
+        <v>2</v>
+      </c>
+      <c r="D573">
+        <v>7</v>
+      </c>
+      <c r="E573">
+        <v>58</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573">
+        <v>0</v>
+      </c>
+      <c r="I573">
+        <v>0</v>
+      </c>
+      <c r="J573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A574" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+      <c r="D574">
+        <v>7</v>
+      </c>
+      <c r="E574">
+        <v>74</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574">
+        <v>0</v>
+      </c>
+      <c r="I574">
+        <v>1</v>
+      </c>
+      <c r="J574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A575" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C575">
+        <v>2</v>
+      </c>
+      <c r="D575">
+        <v>8</v>
+      </c>
+      <c r="E575">
+        <v>104</v>
+      </c>
+      <c r="F575">
+        <v>0</v>
+      </c>
+      <c r="G575">
+        <v>1</v>
+      </c>
+      <c r="H575">
+        <v>0</v>
+      </c>
+      <c r="I575">
+        <v>0</v>
+      </c>
+      <c r="J575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A576" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C576">
+        <v>2</v>
+      </c>
+      <c r="D576">
+        <v>12</v>
+      </c>
+      <c r="E576">
+        <v>671</v>
+      </c>
+      <c r="F576">
+        <v>0</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+      <c r="H576">
+        <v>0</v>
+      </c>
+      <c r="I576">
+        <v>0</v>
+      </c>
+      <c r="J576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A577" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B577" t="s">
+        <v>805</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+      <c r="D577">
+        <v>5</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+      <c r="F577">
+        <v>0</v>
+      </c>
+      <c r="G577">
+        <v>1</v>
+      </c>
+      <c r="H577">
+        <v>0</v>
+      </c>
+      <c r="I577">
+        <v>0</v>
+      </c>
+      <c r="J577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A578" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C578">
+        <v>2</v>
+      </c>
+      <c r="D578">
+        <v>5</v>
+      </c>
+      <c r="E578">
+        <v>23</v>
+      </c>
+      <c r="F578">
+        <v>0</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>0</v>
+      </c>
+      <c r="I578">
+        <v>0</v>
+      </c>
+      <c r="J578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A579" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C579">
+        <v>2</v>
+      </c>
+      <c r="D579">
+        <v>12</v>
+      </c>
+      <c r="E579">
+        <v>36</v>
+      </c>
+      <c r="F579">
+        <v>0</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579">
+        <v>0</v>
+      </c>
+      <c r="I579">
+        <v>0</v>
+      </c>
+      <c r="J579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A580" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+      <c r="D580">
+        <v>5</v>
+      </c>
+      <c r="E580">
+        <v>53</v>
+      </c>
+      <c r="F580">
+        <v>0</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580">
+        <v>0</v>
+      </c>
+      <c r="I580">
+        <v>1</v>
+      </c>
+      <c r="J580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A581" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>5</v>
+      </c>
+      <c r="E581">
+        <v>53</v>
+      </c>
+      <c r="F581">
+        <v>0</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581">
+        <v>0</v>
+      </c>
+      <c r="I581">
+        <v>1</v>
+      </c>
+      <c r="J581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A582" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>5</v>
+      </c>
+      <c r="E582">
+        <v>53</v>
+      </c>
+      <c r="F582">
+        <v>0</v>
+      </c>
+      <c r="G582">
+        <v>0</v>
+      </c>
+      <c r="H582">
+        <v>0</v>
+      </c>
+      <c r="I582">
+        <v>1</v>
+      </c>
+      <c r="J582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A583" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+      <c r="D583">
+        <v>5</v>
+      </c>
+      <c r="E583">
+        <v>53</v>
+      </c>
+      <c r="F583">
+        <v>0</v>
+      </c>
+      <c r="G583">
+        <v>0</v>
+      </c>
+      <c r="H583">
+        <v>0</v>
+      </c>
+      <c r="I583">
+        <v>1</v>
+      </c>
+      <c r="J583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A584" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584">
+        <v>5</v>
+      </c>
+      <c r="E584">
+        <v>27</v>
+      </c>
+      <c r="F584">
+        <v>0</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>0</v>
+      </c>
+      <c r="I584">
+        <v>0</v>
+      </c>
+      <c r="J584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A585" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+      <c r="D585">
+        <v>10</v>
+      </c>
+      <c r="E585">
+        <v>137</v>
+      </c>
+      <c r="F585">
+        <v>1</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+      <c r="H585">
+        <v>0</v>
+      </c>
+      <c r="I585">
+        <v>1</v>
+      </c>
+      <c r="J585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A586" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>10</v>
+      </c>
+      <c r="E586">
+        <v>137</v>
+      </c>
+      <c r="F586">
+        <v>1</v>
+      </c>
+      <c r="G586">
+        <v>1</v>
+      </c>
+      <c r="H586">
+        <v>0</v>
+      </c>
+      <c r="I586">
+        <v>1</v>
+      </c>
+      <c r="J586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A587" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>10</v>
+      </c>
+      <c r="E587">
+        <v>137</v>
+      </c>
+      <c r="F587">
+        <v>1</v>
+      </c>
+      <c r="G587">
+        <v>1</v>
+      </c>
+      <c r="H587">
+        <v>0</v>
+      </c>
+      <c r="I587">
+        <v>1</v>
+      </c>
+      <c r="J587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A588" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C588">
+        <v>2</v>
+      </c>
+      <c r="D588">
+        <v>10</v>
+      </c>
+      <c r="E588">
+        <v>137</v>
+      </c>
+      <c r="F588">
+        <v>1</v>
+      </c>
+      <c r="G588">
+        <v>1</v>
+      </c>
+      <c r="H588">
+        <v>0</v>
+      </c>
+      <c r="I588">
+        <v>1</v>
+      </c>
+      <c r="J588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A589" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C589">
+        <v>2</v>
+      </c>
+      <c r="D589">
+        <v>5</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>0</v>
+      </c>
+      <c r="G589">
+        <v>1</v>
+      </c>
+      <c r="H589">
+        <v>0</v>
+      </c>
+      <c r="I589">
+        <v>0</v>
+      </c>
+      <c r="J589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A590" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+      <c r="D590">
+        <v>10</v>
+      </c>
+      <c r="E590">
+        <v>50</v>
+      </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
+      <c r="G590">
+        <v>1</v>
+      </c>
+      <c r="H590">
+        <v>0</v>
+      </c>
+      <c r="I590">
+        <v>0</v>
+      </c>
+      <c r="J590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A591" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>6</v>
+      </c>
+      <c r="E591">
+        <v>47</v>
+      </c>
+      <c r="F591">
+        <v>0</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591">
+        <v>0</v>
+      </c>
+      <c r="I591">
+        <v>0</v>
+      </c>
+      <c r="J591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A592" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C592">
+        <v>2</v>
+      </c>
+      <c r="D592">
+        <v>7</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592">
+        <v>0</v>
+      </c>
+      <c r="G592">
+        <v>1</v>
+      </c>
+      <c r="H592">
+        <v>0</v>
+      </c>
+      <c r="I592">
+        <v>0</v>
+      </c>
+      <c r="J592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A593" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
+        <v>9</v>
+      </c>
+      <c r="E593">
+        <v>109</v>
+      </c>
+      <c r="F593">
+        <v>0</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+      <c r="H593">
+        <v>0</v>
+      </c>
+      <c r="I593">
+        <v>0</v>
+      </c>
+      <c r="J593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A594" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
+        <v>8</v>
+      </c>
+      <c r="E594">
+        <v>87</v>
+      </c>
+      <c r="F594">
+        <v>1</v>
+      </c>
+      <c r="G594">
+        <v>1</v>
+      </c>
+      <c r="H594">
+        <v>0</v>
+      </c>
+      <c r="I594">
+        <v>0</v>
+      </c>
+      <c r="J594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A595" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+      <c r="D595">
+        <v>14</v>
+      </c>
+      <c r="E595">
+        <v>31</v>
+      </c>
+      <c r="F595">
+        <v>0</v>
+      </c>
+      <c r="G595">
+        <v>1</v>
+      </c>
+      <c r="H595">
+        <v>0</v>
+      </c>
+      <c r="I595">
+        <v>1</v>
+      </c>
+      <c r="J595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A596" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C596">
+        <v>2</v>
+      </c>
+      <c r="D596">
+        <v>9</v>
+      </c>
+      <c r="E596">
+        <v>33</v>
+      </c>
+      <c r="F596">
+        <v>0</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596">
+        <v>0</v>
+      </c>
+      <c r="I596">
+        <v>1</v>
+      </c>
+      <c r="J596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A597" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C597">
+        <v>2</v>
+      </c>
+      <c r="D597">
+        <v>11</v>
+      </c>
+      <c r="E597">
+        <v>103</v>
+      </c>
+      <c r="F597">
+        <v>0</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597">
+        <v>0</v>
+      </c>
+      <c r="I597">
+        <v>1</v>
+      </c>
+      <c r="J597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A598" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C598">
+        <v>2</v>
+      </c>
+      <c r="D598">
+        <v>11</v>
+      </c>
+      <c r="E598">
+        <v>103</v>
+      </c>
+      <c r="F598">
+        <v>0</v>
+      </c>
+      <c r="G598">
+        <v>1</v>
+      </c>
+      <c r="H598">
+        <v>0</v>
+      </c>
+      <c r="I598">
+        <v>1</v>
+      </c>
+      <c r="J598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A599" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C599">
+        <v>2</v>
+      </c>
+      <c r="D599">
+        <v>5</v>
+      </c>
+      <c r="E599">
+        <v>13</v>
+      </c>
+      <c r="F599">
+        <v>0</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+      <c r="I599">
+        <v>0</v>
+      </c>
+      <c r="J599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A600" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>6</v>
+      </c>
+      <c r="E600">
+        <v>59</v>
+      </c>
+      <c r="F600">
+        <v>0</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600">
+        <v>0</v>
+      </c>
+      <c r="I600">
+        <v>0</v>
+      </c>
+      <c r="J600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A601" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C601">
+        <v>2</v>
+      </c>
+      <c r="D601">
+        <v>8</v>
+      </c>
+      <c r="E601">
+        <v>75</v>
+      </c>
+      <c r="F601">
+        <v>0</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>0</v>
+      </c>
+      <c r="I601">
+        <v>0</v>
+      </c>
+      <c r="J601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A602" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+      <c r="D602">
+        <v>6</v>
+      </c>
+      <c r="E602">
+        <v>89</v>
+      </c>
+      <c r="F602">
+        <v>0</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+      <c r="I602">
+        <v>0</v>
+      </c>
+      <c r="J602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A603" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C603">
+        <v>2</v>
+      </c>
+      <c r="D603">
+        <v>8</v>
+      </c>
+      <c r="E603">
+        <v>184</v>
+      </c>
+      <c r="F603">
+        <v>0</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603">
+        <v>0</v>
+      </c>
+      <c r="I603">
+        <v>1</v>
+      </c>
+      <c r="J603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A604" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C604">
+        <v>2</v>
+      </c>
+      <c r="D604">
+        <v>8</v>
+      </c>
+      <c r="E604">
+        <v>184</v>
+      </c>
+      <c r="F604">
+        <v>0</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604">
+        <v>0</v>
+      </c>
+      <c r="I604">
+        <v>1</v>
+      </c>
+      <c r="J604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A605" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C605">
+        <v>2</v>
+      </c>
+      <c r="D605">
+        <v>8</v>
+      </c>
+      <c r="E605">
+        <v>184</v>
+      </c>
+      <c r="F605">
+        <v>0</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+      <c r="I605">
+        <v>1</v>
+      </c>
+      <c r="J605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A606" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C606">
+        <v>2</v>
+      </c>
+      <c r="D606">
+        <v>4</v>
+      </c>
+      <c r="E606">
+        <v>24</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>0</v>
+      </c>
+      <c r="I606">
+        <v>1</v>
+      </c>
+      <c r="J606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A607" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C607">
+        <v>2</v>
+      </c>
+      <c r="D607">
+        <v>6</v>
+      </c>
+      <c r="E607">
+        <v>29</v>
+      </c>
+      <c r="F607">
+        <v>0</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+      <c r="I607">
+        <v>1</v>
+      </c>
+      <c r="J607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A608" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C608">
+        <v>2</v>
+      </c>
+      <c r="D608">
+        <v>7</v>
+      </c>
+      <c r="E608">
+        <v>65</v>
+      </c>
+      <c r="F608">
+        <v>0</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+      <c r="I608">
+        <v>1</v>
+      </c>
+      <c r="J608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A609" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C609">
+        <v>2</v>
+      </c>
+      <c r="D609">
+        <v>5</v>
+      </c>
+      <c r="E609">
+        <v>5</v>
+      </c>
+      <c r="F609">
+        <v>0</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+      <c r="I609">
+        <v>1</v>
+      </c>
+      <c r="J609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A610" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
+        <v>7</v>
+      </c>
+      <c r="E610">
+        <v>65</v>
+      </c>
+      <c r="F610">
+        <v>0</v>
+      </c>
+      <c r="G610">
+        <v>1</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+      <c r="I610">
+        <v>1</v>
+      </c>
+      <c r="J610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A611" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C611">
+        <v>2</v>
+      </c>
+      <c r="D611">
+        <v>6</v>
+      </c>
+      <c r="E611">
+        <v>143</v>
+      </c>
+      <c r="F611">
+        <v>0</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+      <c r="I611">
+        <v>0</v>
+      </c>
+      <c r="J611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A612" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>9</v>
+      </c>
+      <c r="E612">
+        <v>19</v>
+      </c>
+      <c r="F612">
+        <v>0</v>
+      </c>
+      <c r="G612">
+        <v>1</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+      <c r="I612">
+        <v>1</v>
+      </c>
+      <c r="J612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A613" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
+      <c r="D613">
+        <v>7</v>
+      </c>
+      <c r="E613">
+        <v>67</v>
+      </c>
+      <c r="F613">
+        <v>0</v>
+      </c>
+      <c r="G613">
+        <v>1</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+      <c r="I613">
+        <v>1</v>
+      </c>
+      <c r="J613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A614" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+      <c r="D614">
+        <v>7</v>
+      </c>
+      <c r="E614">
+        <v>67</v>
+      </c>
+      <c r="F614">
+        <v>0</v>
+      </c>
+      <c r="G614">
+        <v>1</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+      <c r="I614">
+        <v>1</v>
+      </c>
+      <c r="J614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A615" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C615">
+        <v>2</v>
+      </c>
+      <c r="D615">
+        <v>7</v>
+      </c>
+      <c r="E615">
+        <v>67</v>
+      </c>
+      <c r="F615">
+        <v>0</v>
+      </c>
+      <c r="G615">
+        <v>1</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+      <c r="I615">
+        <v>1</v>
+      </c>
+      <c r="J615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A616" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C616">
+        <v>2</v>
+      </c>
+      <c r="D616">
+        <v>9</v>
+      </c>
+      <c r="E616">
+        <v>49</v>
+      </c>
+      <c r="F616">
+        <v>0</v>
+      </c>
+      <c r="G616">
+        <v>0</v>
+      </c>
+      <c r="H616">
+        <v>0</v>
+      </c>
+      <c r="I616">
+        <v>1</v>
+      </c>
+      <c r="J616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A617" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C617">
+        <v>2</v>
+      </c>
+      <c r="D617">
+        <v>9</v>
+      </c>
+      <c r="E617">
+        <v>49</v>
+      </c>
+      <c r="F617">
+        <v>0</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617">
+        <v>0</v>
+      </c>
+      <c r="I617">
+        <v>1</v>
+      </c>
+      <c r="J617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A618" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C618">
+        <v>2</v>
+      </c>
+      <c r="D618">
+        <v>9</v>
+      </c>
+      <c r="E618">
+        <v>49</v>
+      </c>
+      <c r="F618">
+        <v>0</v>
+      </c>
+      <c r="G618">
+        <v>0</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+      <c r="I618">
+        <v>1</v>
+      </c>
+      <c r="J618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A619" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B619" t="s">
+        <v>995</v>
+      </c>
+      <c r="C619">
+        <v>2</v>
+      </c>
+      <c r="D619">
+        <v>9</v>
+      </c>
+      <c r="E619">
+        <v>49</v>
+      </c>
+      <c r="F619">
+        <v>0</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+      <c r="I619">
+        <v>1</v>
+      </c>
+      <c r="J619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A620" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="D620">
+        <v>7</v>
+      </c>
+      <c r="E620">
+        <v>119</v>
+      </c>
+      <c r="F620">
+        <v>0</v>
+      </c>
+      <c r="G620">
+        <v>0</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+      <c r="I620">
+        <v>1</v>
+      </c>
+      <c r="J620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A621" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="D621">
+        <v>7</v>
+      </c>
+      <c r="E621">
+        <v>119</v>
+      </c>
+      <c r="F621">
+        <v>0</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+      <c r="I621">
+        <v>1</v>
+      </c>
+      <c r="J621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A622" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622">
+        <v>6</v>
+      </c>
+      <c r="E622">
+        <v>143</v>
+      </c>
+      <c r="F622">
+        <v>0</v>
+      </c>
+      <c r="G622">
+        <v>0</v>
+      </c>
+      <c r="H622">
+        <v>0</v>
+      </c>
+      <c r="I622">
+        <v>1</v>
+      </c>
+      <c r="J622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A623" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
+      </c>
+      <c r="D623">
+        <v>7</v>
+      </c>
+      <c r="E623">
+        <v>119</v>
+      </c>
+      <c r="F623">
+        <v>0</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+      <c r="I623">
+        <v>1</v>
+      </c>
+      <c r="J623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A624" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624">
+        <v>8</v>
+      </c>
+      <c r="E624">
+        <v>184</v>
+      </c>
+      <c r="F624">
+        <v>0</v>
+      </c>
+      <c r="G624">
+        <v>0</v>
+      </c>
+      <c r="H624">
+        <v>0</v>
+      </c>
+      <c r="I624">
+        <v>1</v>
+      </c>
+      <c r="J624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A625" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+      <c r="D625">
+        <v>8</v>
+      </c>
+      <c r="E625">
+        <v>184</v>
+      </c>
+      <c r="F625">
+        <v>0</v>
+      </c>
+      <c r="G625">
+        <v>0</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+      <c r="I625">
+        <v>1</v>
+      </c>
+      <c r="J625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A626" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+      <c r="D626">
+        <v>8</v>
+      </c>
+      <c r="E626">
+        <v>184</v>
+      </c>
+      <c r="F626">
+        <v>0</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+      <c r="I626">
+        <v>1</v>
+      </c>
+      <c r="J626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A627" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C627">
+        <v>2</v>
+      </c>
+      <c r="D627">
+        <v>8</v>
+      </c>
+      <c r="E627">
+        <v>184</v>
+      </c>
+      <c r="F627">
+        <v>0</v>
+      </c>
+      <c r="G627">
+        <v>0</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+      <c r="I627">
+        <v>1</v>
+      </c>
+      <c r="J627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A628" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628">
+        <v>7</v>
+      </c>
+      <c r="E628">
+        <v>99</v>
+      </c>
+      <c r="F628">
+        <v>0</v>
+      </c>
+      <c r="G628">
+        <v>1</v>
+      </c>
+      <c r="H628">
+        <v>0</v>
+      </c>
+      <c r="I628">
+        <v>1</v>
+      </c>
+      <c r="J628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A629" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+      <c r="D629">
+        <v>6</v>
+      </c>
+      <c r="E629">
+        <v>84</v>
+      </c>
+      <c r="F629">
+        <v>0</v>
+      </c>
+      <c r="G629">
+        <v>1</v>
+      </c>
+      <c r="H629">
+        <v>0</v>
+      </c>
+      <c r="I629">
+        <v>1</v>
+      </c>
+      <c r="J629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A630" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C630">
+        <v>2</v>
+      </c>
+      <c r="D630">
+        <v>6</v>
+      </c>
+      <c r="E630">
+        <v>84</v>
+      </c>
+      <c r="F630">
+        <v>0</v>
+      </c>
+      <c r="G630">
+        <v>1</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+      <c r="I630">
+        <v>1</v>
+      </c>
+      <c r="J630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A631" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631">
+        <v>7</v>
+      </c>
+      <c r="E631">
+        <v>99</v>
+      </c>
+      <c r="F631">
+        <v>0</v>
+      </c>
+      <c r="G631">
+        <v>1</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+      <c r="I631">
+        <v>1</v>
+      </c>
+      <c r="J631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A632" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C632">
+        <v>0</v>
+      </c>
+      <c r="D632">
+        <v>8</v>
+      </c>
+      <c r="E632">
+        <v>8</v>
+      </c>
+      <c r="F632">
+        <v>0</v>
+      </c>
+      <c r="G632">
+        <v>0</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+      <c r="I632">
+        <v>1</v>
+      </c>
+      <c r="J632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C633">
+        <v>2</v>
+      </c>
+      <c r="D633">
+        <v>7</v>
+      </c>
+      <c r="E633">
+        <v>7</v>
+      </c>
+      <c r="F633">
+        <v>0</v>
+      </c>
+      <c r="G633">
+        <v>0</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+      <c r="I633">
+        <v>0</v>
+      </c>
+      <c r="J633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A634" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C634">
+        <v>0</v>
+      </c>
+      <c r="D634">
+        <v>10</v>
+      </c>
+      <c r="E634">
+        <v>31</v>
+      </c>
+      <c r="F634">
+        <v>0</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634">
+        <v>0</v>
+      </c>
+      <c r="I634">
+        <v>1</v>
+      </c>
+      <c r="J634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A635" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C635">
+        <v>0</v>
+      </c>
+      <c r="D635">
+        <v>9</v>
+      </c>
+      <c r="E635">
+        <v>336</v>
+      </c>
+      <c r="F635">
+        <v>0</v>
+      </c>
+      <c r="G635">
+        <v>1</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+      <c r="I635">
+        <v>1</v>
+      </c>
+      <c r="J635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A636" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C636">
+        <v>0</v>
+      </c>
+      <c r="D636">
+        <v>9</v>
+      </c>
+      <c r="E636">
+        <v>336</v>
+      </c>
+      <c r="F636">
+        <v>0</v>
+      </c>
+      <c r="G636">
+        <v>1</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+      <c r="I636">
+        <v>1</v>
+      </c>
+      <c r="J636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A637" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C637">
+        <v>0</v>
+      </c>
+      <c r="D637">
+        <v>9</v>
+      </c>
+      <c r="E637">
+        <v>336</v>
+      </c>
+      <c r="F637">
+        <v>0</v>
+      </c>
+      <c r="G637">
+        <v>1</v>
+      </c>
+      <c r="H637">
+        <v>0</v>
+      </c>
+      <c r="I637">
+        <v>1</v>
+      </c>
+      <c r="J637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A638" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C638">
+        <v>2</v>
+      </c>
+      <c r="D638">
+        <v>11</v>
+      </c>
+      <c r="E638">
+        <v>51</v>
+      </c>
+      <c r="F638">
+        <v>0</v>
+      </c>
+      <c r="G638">
+        <v>1</v>
+      </c>
+      <c r="H638">
+        <v>0</v>
+      </c>
+      <c r="I638">
+        <v>1</v>
+      </c>
+      <c r="J638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A639" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C639">
+        <v>2</v>
+      </c>
+      <c r="D639">
+        <v>12</v>
+      </c>
+      <c r="E639">
+        <v>90</v>
+      </c>
+      <c r="F639">
+        <v>0</v>
+      </c>
+      <c r="G639">
+        <v>1</v>
+      </c>
+      <c r="H639">
+        <v>0</v>
+      </c>
+      <c r="I639">
+        <v>1</v>
+      </c>
+      <c r="J639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A640" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C640">
+        <v>2</v>
+      </c>
+      <c r="D640">
+        <v>12</v>
+      </c>
+      <c r="E640">
+        <v>90</v>
+      </c>
+      <c r="F640">
+        <v>0</v>
+      </c>
+      <c r="G640">
+        <v>1</v>
+      </c>
+      <c r="H640">
+        <v>0</v>
+      </c>
+      <c r="I640">
+        <v>1</v>
+      </c>
+      <c r="J640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A641" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C641">
+        <v>0</v>
+      </c>
+      <c r="D641">
+        <v>3</v>
+      </c>
+      <c r="E641">
+        <v>251</v>
+      </c>
+      <c r="F641">
+        <v>0</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="H641">
+        <v>0</v>
+      </c>
+      <c r="I641">
+        <v>1</v>
+      </c>
+      <c r="J641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A642" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C642">
+        <v>0</v>
+      </c>
+      <c r="D642">
+        <v>3</v>
+      </c>
+      <c r="E642">
+        <v>251</v>
+      </c>
+      <c r="F642">
+        <v>0</v>
+      </c>
+      <c r="G642">
+        <v>0</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+      <c r="I642">
+        <v>1</v>
+      </c>
+      <c r="J642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A643" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C643">
+        <v>0</v>
+      </c>
+      <c r="D643">
+        <v>3</v>
+      </c>
+      <c r="E643">
+        <v>251</v>
+      </c>
+      <c r="F643">
+        <v>0</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643">
+        <v>0</v>
+      </c>
+      <c r="I643">
+        <v>1</v>
+      </c>
+      <c r="J643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A644" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+      <c r="D644">
+        <v>3</v>
+      </c>
+      <c r="E644">
+        <v>154</v>
+      </c>
+      <c r="F644">
+        <v>0</v>
+      </c>
+      <c r="G644">
+        <v>0</v>
+      </c>
+      <c r="H644">
+        <v>0</v>
+      </c>
+      <c r="I644">
+        <v>1</v>
+      </c>
+      <c r="J644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A645" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C645">
+        <v>0</v>
+      </c>
+      <c r="D645">
+        <v>3</v>
+      </c>
+      <c r="E645">
+        <v>154</v>
+      </c>
+      <c r="F645">
+        <v>0</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+      <c r="I645">
+        <v>1</v>
+      </c>
+      <c r="J645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A646" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C646">
+        <v>0</v>
+      </c>
+      <c r="D646">
+        <v>3</v>
+      </c>
+      <c r="E646">
+        <v>154</v>
+      </c>
+      <c r="F646">
+        <v>0</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
+      </c>
+      <c r="I646">
+        <v>1</v>
+      </c>
+      <c r="J646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A647" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C647">
+        <v>0</v>
+      </c>
+      <c r="D647">
+        <v>3</v>
+      </c>
+      <c r="E647">
+        <v>191</v>
+      </c>
+      <c r="F647">
+        <v>0</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647">
+        <v>0</v>
+      </c>
+      <c r="I647">
+        <v>1</v>
+      </c>
+      <c r="J647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A648" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C648">
+        <v>0</v>
+      </c>
+      <c r="D648">
+        <v>3</v>
+      </c>
+      <c r="E648">
+        <v>191</v>
+      </c>
+      <c r="F648">
+        <v>0</v>
+      </c>
+      <c r="G648">
+        <v>0</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+      <c r="I648">
+        <v>1</v>
+      </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A649" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C649">
+        <v>0</v>
+      </c>
+      <c r="D649">
+        <v>3</v>
+      </c>
+      <c r="E649">
+        <v>191</v>
+      </c>
+      <c r="F649">
+        <v>0</v>
+      </c>
+      <c r="G649">
+        <v>0</v>
+      </c>
+      <c r="H649">
+        <v>0</v>
+      </c>
+      <c r="I649">
+        <v>1</v>
+      </c>
+      <c r="J649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A650" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C650">
+        <v>0</v>
+      </c>
+      <c r="D650">
+        <v>3</v>
+      </c>
+      <c r="E650">
+        <v>110</v>
+      </c>
+      <c r="F650">
+        <v>0</v>
+      </c>
+      <c r="G650">
+        <v>0</v>
+      </c>
+      <c r="H650">
+        <v>0</v>
+      </c>
+      <c r="I650">
+        <v>1</v>
+      </c>
+      <c r="J650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A651" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>3</v>
+      </c>
+      <c r="E651">
+        <v>110</v>
+      </c>
+      <c r="F651">
+        <v>0</v>
+      </c>
+      <c r="G651">
+        <v>0</v>
+      </c>
+      <c r="H651">
+        <v>0</v>
+      </c>
+      <c r="I651">
+        <v>1</v>
+      </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A652" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C652">
+        <v>0</v>
+      </c>
+      <c r="D652">
+        <v>3</v>
+      </c>
+      <c r="E652">
+        <v>110</v>
+      </c>
+      <c r="F652">
+        <v>0</v>
+      </c>
+      <c r="G652">
+        <v>0</v>
+      </c>
+      <c r="H652">
+        <v>0</v>
+      </c>
+      <c r="I652">
+        <v>1</v>
+      </c>
+      <c r="J652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A653" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C653">
+        <v>2</v>
+      </c>
+      <c r="D653">
+        <v>9</v>
+      </c>
+      <c r="E653">
+        <v>13</v>
+      </c>
+      <c r="F653">
+        <v>0</v>
+      </c>
+      <c r="G653">
+        <v>1</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
+      </c>
+      <c r="I653">
+        <v>1</v>
+      </c>
+      <c r="J653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A654" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C654">
+        <v>2</v>
+      </c>
+      <c r="D654">
+        <v>9</v>
+      </c>
+      <c r="E654">
+        <v>13</v>
+      </c>
+      <c r="F654">
+        <v>0</v>
+      </c>
+      <c r="G654">
+        <v>1</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+      <c r="I654">
+        <v>1</v>
+      </c>
+      <c r="J654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A655" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+      <c r="D655">
+        <v>8</v>
+      </c>
+      <c r="E655">
+        <v>39</v>
+      </c>
+      <c r="F655">
+        <v>1</v>
+      </c>
+      <c r="G655">
+        <v>0</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+      <c r="I655">
+        <v>1</v>
+      </c>
+      <c r="J655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A656" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+      <c r="D656">
+        <v>8</v>
+      </c>
+      <c r="E656">
+        <v>18</v>
+      </c>
+      <c r="F656">
+        <v>1</v>
+      </c>
+      <c r="G656">
+        <v>0</v>
+      </c>
+      <c r="H656">
+        <v>0</v>
+      </c>
+      <c r="I656">
+        <v>1</v>
+      </c>
+      <c r="J656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A657" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+      <c r="D657">
+        <v>8</v>
+      </c>
+      <c r="E657">
+        <v>18</v>
+      </c>
+      <c r="F657">
+        <v>1</v>
+      </c>
+      <c r="G657">
+        <v>0</v>
+      </c>
+      <c r="H657">
+        <v>0</v>
+      </c>
+      <c r="I657">
+        <v>1</v>
+      </c>
+      <c r="J657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A658" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+      <c r="D658">
+        <v>8</v>
+      </c>
+      <c r="E658">
+        <v>18</v>
+      </c>
+      <c r="F658">
+        <v>1</v>
+      </c>
+      <c r="G658">
+        <v>0</v>
+      </c>
+      <c r="H658">
+        <v>0</v>
+      </c>
+      <c r="I658">
+        <v>1</v>
+      </c>
+      <c r="J658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A659" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C659">
+        <v>2</v>
+      </c>
+      <c r="D659">
+        <v>7</v>
+      </c>
+      <c r="E659">
+        <v>12</v>
+      </c>
+      <c r="F659">
+        <v>1</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659">
+        <v>0</v>
+      </c>
+      <c r="I659">
+        <v>1</v>
+      </c>
+      <c r="J659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A660" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C660">
+        <v>2</v>
+      </c>
+      <c r="D660">
+        <v>5</v>
+      </c>
+      <c r="E660">
+        <v>24</v>
+      </c>
+      <c r="F660">
+        <v>1</v>
+      </c>
+      <c r="G660">
+        <v>0</v>
+      </c>
+      <c r="H660">
+        <v>0</v>
+      </c>
+      <c r="I660">
+        <v>1</v>
+      </c>
+      <c r="J660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A661" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+      <c r="D661">
+        <v>8</v>
+      </c>
+      <c r="E661">
+        <v>18</v>
+      </c>
+      <c r="F661">
+        <v>1</v>
+      </c>
+      <c r="G661">
+        <v>0</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
+      </c>
+      <c r="I661">
+        <v>1</v>
+      </c>
+      <c r="J661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A662" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+      <c r="D662">
+        <v>8</v>
+      </c>
+      <c r="E662">
+        <v>39</v>
+      </c>
+      <c r="F662">
+        <v>1</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+      <c r="H662">
+        <v>0</v>
+      </c>
+      <c r="I662">
+        <v>1</v>
+      </c>
+      <c r="J662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A663" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C663">
+        <v>2</v>
+      </c>
+      <c r="D663">
+        <v>8</v>
+      </c>
+      <c r="E663">
+        <v>39</v>
+      </c>
+      <c r="F663">
+        <v>0</v>
+      </c>
+      <c r="G663">
+        <v>0</v>
+      </c>
+      <c r="H663">
+        <v>0</v>
+      </c>
+      <c r="I663">
+        <v>1</v>
+      </c>
+      <c r="J663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A664" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+      <c r="D664">
+        <v>8</v>
+      </c>
+      <c r="E664">
+        <v>39</v>
+      </c>
+      <c r="F664">
+        <v>1</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+      <c r="H664">
+        <v>0</v>
+      </c>
+      <c r="I664">
+        <v>0</v>
+      </c>
+      <c r="J664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A665" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C665">
+        <v>2</v>
+      </c>
+      <c r="D665">
+        <v>11</v>
+      </c>
+      <c r="E665">
+        <v>1</v>
+      </c>
+      <c r="F665">
+        <v>0</v>
+      </c>
+      <c r="G665">
+        <v>1</v>
+      </c>
+      <c r="H665">
+        <v>0</v>
+      </c>
+      <c r="I665">
+        <v>1</v>
+      </c>
+      <c r="J665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A666" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+      <c r="D666">
+        <v>3</v>
+      </c>
+      <c r="E666">
+        <v>3</v>
+      </c>
+      <c r="F666">
+        <v>0</v>
+      </c>
+      <c r="G666">
+        <v>0</v>
+      </c>
+      <c r="H666">
+        <v>0</v>
+      </c>
+      <c r="I666">
+        <v>1</v>
+      </c>
+      <c r="J666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A667" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B667" t="s">
+        <v>379</v>
+      </c>
+      <c r="C667">
+        <v>2</v>
+      </c>
+      <c r="D667">
+        <v>6</v>
+      </c>
+      <c r="E667">
+        <v>9</v>
+      </c>
+      <c r="F667">
+        <v>0</v>
+      </c>
+      <c r="G667">
+        <v>1</v>
+      </c>
+      <c r="H667">
+        <v>0</v>
+      </c>
+      <c r="I667">
+        <v>0</v>
+      </c>
+      <c r="J667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A668" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C668">
+        <v>2</v>
+      </c>
+      <c r="D668">
+        <v>9</v>
+      </c>
+      <c r="E668">
+        <v>48</v>
+      </c>
+      <c r="F668">
+        <v>0</v>
+      </c>
+      <c r="G668">
+        <v>1</v>
+      </c>
+      <c r="H668">
+        <v>0</v>
+      </c>
+      <c r="I668">
+        <v>1</v>
+      </c>
+      <c r="J668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A669" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C669">
+        <v>2</v>
+      </c>
+      <c r="D669">
+        <v>9</v>
+      </c>
+      <c r="E669">
+        <v>48</v>
+      </c>
+      <c r="F669">
+        <v>0</v>
+      </c>
+      <c r="G669">
+        <v>1</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+      <c r="I669">
+        <v>1</v>
+      </c>
+      <c r="J669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A670" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C670">
+        <v>2</v>
+      </c>
+      <c r="D670">
+        <v>3</v>
+      </c>
+      <c r="E670">
+        <v>3</v>
+      </c>
+      <c r="F670">
+        <v>0</v>
+      </c>
+      <c r="G670">
+        <v>0</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+      <c r="I670">
+        <v>1</v>
+      </c>
+      <c r="J670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A671" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C671">
+        <v>2</v>
+      </c>
+      <c r="D671">
+        <v>7</v>
+      </c>
+      <c r="E671">
+        <v>11</v>
+      </c>
+      <c r="F671">
+        <v>0</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+      <c r="H671">
+        <v>0</v>
+      </c>
+      <c r="I671">
+        <v>1</v>
+      </c>
+      <c r="J671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A672" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C672">
+        <v>2</v>
+      </c>
+      <c r="D672">
+        <v>9</v>
+      </c>
+      <c r="E672">
+        <v>48</v>
+      </c>
+      <c r="F672">
+        <v>0</v>
+      </c>
+      <c r="G672">
+        <v>1</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+      <c r="I672">
+        <v>1</v>
+      </c>
+      <c r="J672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A673" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C673">
+        <v>2</v>
+      </c>
+      <c r="D673">
+        <v>9</v>
+      </c>
+      <c r="E673">
+        <v>48</v>
+      </c>
+      <c r="F673">
+        <v>0</v>
+      </c>
+      <c r="G673">
+        <v>1</v>
+      </c>
+      <c r="H673">
+        <v>0</v>
+      </c>
+      <c r="I673">
+        <v>1</v>
+      </c>
+      <c r="J673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A674" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+      <c r="D674">
+        <v>10</v>
+      </c>
+      <c r="E674">
+        <v>14</v>
+      </c>
+      <c r="F674">
+        <v>0</v>
+      </c>
+      <c r="G674">
+        <v>1</v>
+      </c>
+      <c r="H674">
+        <v>0</v>
+      </c>
+      <c r="I674">
+        <v>1</v>
+      </c>
+      <c r="J674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A675" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C675">
+        <v>2</v>
+      </c>
+      <c r="D675">
+        <v>9</v>
+      </c>
+      <c r="E675">
+        <v>48</v>
+      </c>
+      <c r="F675">
+        <v>0</v>
+      </c>
+      <c r="G675">
+        <v>1</v>
+      </c>
+      <c r="H675">
+        <v>0</v>
+      </c>
+      <c r="I675">
+        <v>1</v>
+      </c>
+      <c r="J675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A676" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C676">
+        <v>2</v>
+      </c>
+      <c r="D676">
+        <v>9</v>
+      </c>
+      <c r="E676">
+        <v>48</v>
+      </c>
+      <c r="F676">
+        <v>0</v>
+      </c>
+      <c r="G676">
+        <v>1</v>
+      </c>
+      <c r="H676">
+        <v>0</v>
+      </c>
+      <c r="I676">
+        <v>1</v>
+      </c>
+      <c r="J676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A677" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+      <c r="D677">
+        <v>8</v>
+      </c>
+      <c r="E677">
+        <v>84</v>
+      </c>
+      <c r="F677">
+        <v>0</v>
+      </c>
+      <c r="G677">
+        <v>0</v>
+      </c>
+      <c r="H677">
+        <v>0</v>
+      </c>
+      <c r="I677">
+        <v>1</v>
+      </c>
+      <c r="J677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A678" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C678">
+        <v>2</v>
+      </c>
+      <c r="D678">
+        <v>8</v>
+      </c>
+      <c r="E678">
+        <v>84</v>
+      </c>
+      <c r="F678">
+        <v>0</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678">
+        <v>0</v>
+      </c>
+      <c r="I678">
+        <v>1</v>
+      </c>
+      <c r="J678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A679" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+      <c r="D679">
+        <v>8</v>
+      </c>
+      <c r="E679">
+        <v>84</v>
+      </c>
+      <c r="F679">
+        <v>0</v>
+      </c>
+      <c r="G679">
+        <v>0</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+      <c r="I679">
+        <v>1</v>
+      </c>
+      <c r="J679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A680" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+      <c r="D680">
+        <v>8</v>
+      </c>
+      <c r="E680">
+        <v>242</v>
+      </c>
+      <c r="F680">
+        <v>0</v>
+      </c>
+      <c r="G680">
+        <v>0</v>
+      </c>
+      <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680">
+        <v>1</v>
+      </c>
+      <c r="J680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A681" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C681">
+        <v>2</v>
+      </c>
+      <c r="D681">
+        <v>8</v>
+      </c>
+      <c r="E681">
+        <v>242</v>
+      </c>
+      <c r="F681">
+        <v>0</v>
+      </c>
+      <c r="G681">
+        <v>0</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+      <c r="I681">
+        <v>1</v>
+      </c>
+      <c r="J681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A682" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C682">
+        <v>2</v>
+      </c>
+      <c r="D682">
+        <v>8</v>
+      </c>
+      <c r="E682">
+        <v>242</v>
+      </c>
+      <c r="F682">
+        <v>0</v>
+      </c>
+      <c r="G682">
+        <v>0</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+      <c r="I682">
+        <v>1</v>
+      </c>
+      <c r="J682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A683" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C683">
+        <v>2</v>
+      </c>
+      <c r="D683">
+        <v>8</v>
+      </c>
+      <c r="E683">
+        <v>230</v>
+      </c>
+      <c r="F683">
+        <v>0</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+      <c r="I683">
+        <v>1</v>
+      </c>
+      <c r="J683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A684" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C684">
+        <v>2</v>
+      </c>
+      <c r="D684">
+        <v>8</v>
+      </c>
+      <c r="E684">
+        <v>230</v>
+      </c>
+      <c r="F684">
+        <v>0</v>
+      </c>
+      <c r="G684">
+        <v>0</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+      <c r="I684">
+        <v>1</v>
+      </c>
+      <c r="J684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A685" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C685">
+        <v>2</v>
+      </c>
+      <c r="D685">
+        <v>8</v>
+      </c>
+      <c r="E685">
+        <v>230</v>
+      </c>
+      <c r="F685">
+        <v>0</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+      <c r="I685">
+        <v>1</v>
+      </c>
+      <c r="J685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A686" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+      <c r="D686">
+        <v>8</v>
+      </c>
+      <c r="E686">
+        <v>73</v>
+      </c>
+      <c r="F686">
+        <v>0</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+      <c r="I686">
+        <v>1</v>
+      </c>
+      <c r="J686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A687" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C687">
+        <v>2</v>
+      </c>
+      <c r="D687">
+        <v>4</v>
+      </c>
+      <c r="E687">
+        <v>24</v>
+      </c>
+      <c r="F687">
+        <v>0</v>
+      </c>
+      <c r="G687">
+        <v>0</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+      <c r="I687">
+        <v>1</v>
+      </c>
+      <c r="J687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A688" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>4</v>
+      </c>
+      <c r="E688">
+        <v>24</v>
+      </c>
+      <c r="F688">
+        <v>0</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688">
+        <v>0</v>
+      </c>
+      <c r="I688">
+        <v>1</v>
+      </c>
+      <c r="J688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A689" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+      <c r="D689">
+        <v>5</v>
+      </c>
+      <c r="E689">
+        <v>78</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+      <c r="G689">
+        <v>1</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+      <c r="I689">
+        <v>1</v>
+      </c>
+      <c r="J689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A690" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C690">
+        <v>2</v>
+      </c>
+      <c r="D690">
+        <v>5</v>
+      </c>
+      <c r="E690">
+        <v>78</v>
+      </c>
+      <c r="F690">
+        <v>0</v>
+      </c>
+      <c r="G690">
+        <v>0</v>
+      </c>
+      <c r="H690">
+        <v>0</v>
+      </c>
+      <c r="I690">
+        <v>1</v>
+      </c>
+      <c r="J690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A691" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+      <c r="D691">
+        <v>5</v>
+      </c>
+      <c r="E691">
+        <v>78</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+      <c r="G691">
+        <v>1</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
+      </c>
+      <c r="I691">
+        <v>1</v>
+      </c>
+      <c r="J691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A692" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>5</v>
+      </c>
+      <c r="E692">
+        <v>74</v>
+      </c>
+      <c r="F692">
+        <v>1</v>
+      </c>
+      <c r="G692">
+        <v>1</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+      <c r="I692">
+        <v>1</v>
+      </c>
+      <c r="J692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A693" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C693">
+        <v>2</v>
+      </c>
+      <c r="D693">
+        <v>5</v>
+      </c>
+      <c r="E693">
+        <v>74</v>
+      </c>
+      <c r="F693">
+        <v>0</v>
+      </c>
+      <c r="G693">
+        <v>0</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+      <c r="I693">
+        <v>1</v>
+      </c>
+      <c r="J693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A694" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+      <c r="D694">
+        <v>5</v>
+      </c>
+      <c r="E694">
+        <v>74</v>
+      </c>
+      <c r="F694">
+        <v>1</v>
+      </c>
+      <c r="G694">
+        <v>1</v>
+      </c>
+      <c r="H694">
+        <v>0</v>
+      </c>
+      <c r="I694">
+        <v>1</v>
+      </c>
+      <c r="J694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A695" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="D695">
+        <v>5</v>
+      </c>
+      <c r="E695">
+        <v>78</v>
+      </c>
+      <c r="F695">
+        <v>1</v>
+      </c>
+      <c r="G695">
+        <v>1</v>
+      </c>
+      <c r="H695">
+        <v>0</v>
+      </c>
+      <c r="I695">
+        <v>1</v>
+      </c>
+      <c r="J695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A696" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C696">
+        <v>2</v>
+      </c>
+      <c r="D696">
+        <v>5</v>
+      </c>
+      <c r="E696">
+        <v>78</v>
+      </c>
+      <c r="F696">
+        <v>0</v>
+      </c>
+      <c r="G696">
+        <v>0</v>
+      </c>
+      <c r="H696">
+        <v>0</v>
+      </c>
+      <c r="I696">
+        <v>1</v>
+      </c>
+      <c r="J696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A697" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+      <c r="D697">
+        <v>5</v>
+      </c>
+      <c r="E697">
+        <v>78</v>
+      </c>
+      <c r="F697">
+        <v>1</v>
+      </c>
+      <c r="G697">
+        <v>1</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+      <c r="I697">
+        <v>1</v>
+      </c>
+      <c r="J697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A698" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C698">
+        <v>2</v>
+      </c>
+      <c r="D698">
+        <v>5</v>
+      </c>
+      <c r="E698">
+        <v>20</v>
+      </c>
+      <c r="F698">
+        <v>0</v>
+      </c>
+      <c r="G698">
+        <v>0</v>
+      </c>
+      <c r="H698">
+        <v>0</v>
+      </c>
+      <c r="I698">
+        <v>1</v>
+      </c>
+      <c r="J698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A699" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C699">
+        <v>2</v>
+      </c>
+      <c r="D699">
+        <v>5</v>
+      </c>
+      <c r="E699">
+        <v>20</v>
+      </c>
+      <c r="F699">
+        <v>0</v>
+      </c>
+      <c r="G699">
+        <v>0</v>
+      </c>
+      <c r="H699">
+        <v>0</v>
+      </c>
+      <c r="I699">
+        <v>1</v>
+      </c>
+      <c r="J699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A700" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C700">
+        <v>2</v>
+      </c>
+      <c r="D700">
+        <v>5</v>
+      </c>
+      <c r="E700">
+        <v>20</v>
+      </c>
+      <c r="F700">
+        <v>0</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+      <c r="H700">
+        <v>0</v>
+      </c>
+      <c r="I700">
+        <v>1</v>
+      </c>
+      <c r="J700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A701" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+      <c r="D701">
+        <v>8</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+      <c r="F701">
+        <v>0</v>
+      </c>
+      <c r="G701">
+        <v>0</v>
+      </c>
+      <c r="H701">
+        <v>0</v>
+      </c>
+      <c r="I701">
+        <v>1</v>
+      </c>
+      <c r="J701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A702" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C702">
+        <v>2</v>
+      </c>
+      <c r="D702">
+        <v>5</v>
+      </c>
+      <c r="E702">
+        <v>3</v>
+      </c>
+      <c r="F702">
+        <v>0</v>
+      </c>
+      <c r="G702">
+        <v>0</v>
+      </c>
+      <c r="H702">
+        <v>0</v>
+      </c>
+      <c r="I702">
+        <v>1</v>
+      </c>
+      <c r="J702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A703" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+      <c r="D703">
+        <v>7</v>
+      </c>
+      <c r="E703">
+        <v>4</v>
+      </c>
+      <c r="F703">
+        <v>0</v>
+      </c>
+      <c r="G703">
+        <v>0</v>
+      </c>
+      <c r="H703">
+        <v>0</v>
+      </c>
+      <c r="I703">
+        <v>1</v>
+      </c>
+      <c r="J703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A704" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C704">
+        <v>0</v>
+      </c>
+      <c r="D704">
+        <v>9</v>
+      </c>
+      <c r="E704">
+        <v>3957</v>
+      </c>
+      <c r="F704">
+        <v>1</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704">
+        <v>0</v>
+      </c>
+      <c r="I704">
+        <v>1</v>
+      </c>
+      <c r="J704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A705" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C705">
+        <v>0</v>
+      </c>
+      <c r="D705">
+        <v>9</v>
+      </c>
+      <c r="E705">
+        <v>3957</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+      <c r="G705">
+        <v>0</v>
+      </c>
+      <c r="H705">
+        <v>0</v>
+      </c>
+      <c r="I705">
+        <v>1</v>
+      </c>
+      <c r="J705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A706" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+      <c r="D706">
+        <v>9</v>
+      </c>
+      <c r="E706">
+        <v>3957</v>
+      </c>
+      <c r="F706">
+        <v>1</v>
+      </c>
+      <c r="G706">
+        <v>0</v>
+      </c>
+      <c r="H706">
+        <v>0</v>
+      </c>
+      <c r="I706">
+        <v>1</v>
+      </c>
+      <c r="J706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A707" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+      <c r="D707">
+        <v>9</v>
+      </c>
+      <c r="E707">
+        <v>1888</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+      <c r="G707">
+        <v>0</v>
+      </c>
+      <c r="H707">
+        <v>0</v>
+      </c>
+      <c r="I707">
+        <v>1</v>
+      </c>
+      <c r="J707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A708" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+      <c r="D708">
+        <v>9</v>
+      </c>
+      <c r="E708">
+        <v>1888</v>
+      </c>
+      <c r="F708">
+        <v>1</v>
+      </c>
+      <c r="G708">
+        <v>0</v>
+      </c>
+      <c r="H708">
+        <v>0</v>
+      </c>
+      <c r="I708">
+        <v>1</v>
+      </c>
+      <c r="J708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A709" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C709">
+        <v>0</v>
+      </c>
+      <c r="D709">
+        <v>9</v>
+      </c>
+      <c r="E709">
+        <v>1888</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+      <c r="G709">
+        <v>0</v>
+      </c>
+      <c r="H709">
+        <v>0</v>
+      </c>
+      <c r="I709">
+        <v>1</v>
+      </c>
+      <c r="J709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A710" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+      <c r="D710">
+        <v>9</v>
+      </c>
+      <c r="E710">
+        <v>955</v>
+      </c>
+      <c r="F710">
+        <v>1</v>
+      </c>
+      <c r="G710">
+        <v>0</v>
+      </c>
+      <c r="H710">
+        <v>0</v>
+      </c>
+      <c r="I710">
+        <v>1</v>
+      </c>
+      <c r="J710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A711" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+      <c r="D711">
+        <v>9</v>
+      </c>
+      <c r="E711">
+        <v>955</v>
+      </c>
+      <c r="F711">
+        <v>1</v>
+      </c>
+      <c r="G711">
+        <v>0</v>
+      </c>
+      <c r="H711">
+        <v>0</v>
+      </c>
+      <c r="I711">
+        <v>1</v>
+      </c>
+      <c r="J711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A712" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C712">
+        <v>0</v>
+      </c>
+      <c r="D712">
+        <v>9</v>
+      </c>
+      <c r="E712">
+        <v>955</v>
+      </c>
+      <c r="F712">
+        <v>1</v>
+      </c>
+      <c r="G712">
+        <v>0</v>
+      </c>
+      <c r="H712">
+        <v>0</v>
+      </c>
+      <c r="I712">
+        <v>1</v>
+      </c>
+      <c r="J712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A713" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C713">
+        <v>2</v>
+      </c>
+      <c r="D713">
+        <v>7</v>
+      </c>
+      <c r="E713">
+        <v>17</v>
+      </c>
+      <c r="F713">
+        <v>0</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+      <c r="H713">
+        <v>0</v>
+      </c>
+      <c r="I713">
+        <v>1</v>
+      </c>
+      <c r="J713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A714" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
+      </c>
+      <c r="D714">
+        <v>7</v>
+      </c>
+      <c r="E714">
+        <v>17</v>
+      </c>
+      <c r="F714">
+        <v>0</v>
+      </c>
+      <c r="G714">
+        <v>0</v>
+      </c>
+      <c r="H714">
+        <v>0</v>
+      </c>
+      <c r="I714">
+        <v>1</v>
+      </c>
+      <c r="J714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A715" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
+      <c r="D715">
+        <v>7</v>
+      </c>
+      <c r="E715">
+        <v>17</v>
+      </c>
+      <c r="F715">
+        <v>0</v>
+      </c>
+      <c r="G715">
+        <v>0</v>
+      </c>
+      <c r="H715">
+        <v>0</v>
+      </c>
+      <c r="I715">
+        <v>1</v>
+      </c>
+      <c r="J715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A716" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C716">
+        <v>0</v>
+      </c>
+      <c r="D716">
+        <v>7</v>
+      </c>
+      <c r="E716">
+        <v>17</v>
+      </c>
+      <c r="F716">
+        <v>0</v>
+      </c>
+      <c r="G716">
+        <v>0</v>
+      </c>
+      <c r="H716">
+        <v>0</v>
+      </c>
+      <c r="I716">
+        <v>1</v>
+      </c>
+      <c r="J716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A717" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C717">
+        <v>2</v>
+      </c>
+      <c r="D717">
+        <v>7</v>
+      </c>
+      <c r="E717">
+        <v>17</v>
+      </c>
+      <c r="F717">
+        <v>0</v>
+      </c>
+      <c r="G717">
+        <v>0</v>
+      </c>
+      <c r="H717">
+        <v>0</v>
+      </c>
+      <c r="I717">
+        <v>1</v>
+      </c>
+      <c r="J717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>998</v>
+      </c>
+      <c r="B718" t="s">
+        <v>997</v>
+      </c>
+      <c r="C718">
+        <v>2</v>
+      </c>
+      <c r="D718">
+        <v>7</v>
+      </c>
+      <c r="E718">
+        <v>17</v>
+      </c>
+      <c r="F718">
+        <v>1</v>
+      </c>
+      <c r="G718">
+        <v>0</v>
+      </c>
+      <c r="H718">
+        <v>0</v>
+      </c>
+      <c r="I718">
+        <v>0</v>
+      </c>
+      <c r="J718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C719">
+        <v>2</v>
+      </c>
+      <c r="D719">
+        <v>7</v>
+      </c>
+      <c r="E719">
+        <v>17</v>
+      </c>
+      <c r="F719">
+        <v>0</v>
+      </c>
+      <c r="G719">
+        <v>0</v>
+      </c>
+      <c r="H719">
+        <v>0</v>
+      </c>
+      <c r="I719">
+        <v>0</v>
+      </c>
+      <c r="J719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A720" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B720" t="s">
+        <v>999</v>
+      </c>
+      <c r="C720">
+        <v>0</v>
+      </c>
+      <c r="D720">
+        <v>7</v>
+      </c>
+      <c r="E720">
+        <v>17</v>
+      </c>
+      <c r="F720">
+        <v>0</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+      <c r="H720">
+        <v>0</v>
+      </c>
+      <c r="I720">
+        <v>1</v>
+      </c>
+      <c r="J720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>998</v>
+      </c>
+      <c r="B721" t="s">
+        <v>997</v>
+      </c>
+      <c r="C721">
+        <v>2</v>
+      </c>
+      <c r="D721">
+        <v>7</v>
+      </c>
+      <c r="E721">
+        <v>17</v>
+      </c>
+      <c r="F721">
+        <v>1</v>
+      </c>
+      <c r="G721">
+        <v>0</v>
+      </c>
+      <c r="H721">
+        <v>0</v>
+      </c>
+      <c r="I721">
+        <v>0</v>
+      </c>
+      <c r="J721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A722" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B722" t="s">
+        <v>995</v>
+      </c>
+      <c r="C722">
+        <v>2</v>
+      </c>
+      <c r="D722">
+        <v>7</v>
+      </c>
+      <c r="E722">
+        <v>17</v>
+      </c>
+      <c r="F722">
+        <v>0</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <v>0</v>
+      </c>
+      <c r="I722">
+        <v>1</v>
+      </c>
+      <c r="J722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>994</v>
+      </c>
+      <c r="B723" t="s">
+        <v>993</v>
+      </c>
+      <c r="C723">
+        <v>2</v>
+      </c>
+      <c r="D723">
+        <v>7</v>
+      </c>
+      <c r="E723">
+        <v>17</v>
+      </c>
+      <c r="F723">
+        <v>0</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+      <c r="H723">
+        <v>0</v>
+      </c>
+      <c r="I723">
+        <v>0</v>
+      </c>
+      <c r="J723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A724" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B724" t="s">
+        <v>991</v>
+      </c>
+      <c r="C724">
+        <v>0</v>
+      </c>
+      <c r="D724">
+        <v>6</v>
+      </c>
+      <c r="E724">
+        <v>9</v>
+      </c>
+      <c r="F724">
+        <v>0</v>
+      </c>
+      <c r="G724">
+        <v>0</v>
+      </c>
+      <c r="H724">
+        <v>0</v>
+      </c>
+      <c r="I724">
+        <v>1</v>
+      </c>
+      <c r="J724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A725" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B725" t="s">
+        <v>989</v>
+      </c>
+      <c r="C725">
+        <v>0</v>
+      </c>
+      <c r="D725">
+        <v>8</v>
+      </c>
+      <c r="E725">
+        <v>1030</v>
+      </c>
+      <c r="F725">
+        <v>1</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+      <c r="H725">
+        <v>0</v>
+      </c>
+      <c r="I725">
+        <v>1</v>
+      </c>
+      <c r="J725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A726" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B726" t="s">
+        <v>987</v>
+      </c>
+      <c r="C726">
+        <v>0</v>
+      </c>
+      <c r="D726">
+        <v>8</v>
+      </c>
+      <c r="E726">
+        <v>1030</v>
+      </c>
+      <c r="F726">
+        <v>1</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+      <c r="H726">
+        <v>0</v>
+      </c>
+      <c r="I726">
+        <v>1</v>
+      </c>
+      <c r="J726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A727" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B727" t="s">
+        <v>985</v>
+      </c>
+      <c r="C727">
+        <v>0</v>
+      </c>
+      <c r="D727">
+        <v>8</v>
+      </c>
+      <c r="E727">
+        <v>1030</v>
+      </c>
+      <c r="F727">
+        <v>1</v>
+      </c>
+      <c r="G727">
+        <v>0</v>
+      </c>
+      <c r="H727">
+        <v>0</v>
+      </c>
+      <c r="I727">
+        <v>1</v>
+      </c>
+      <c r="J727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A728" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B728" t="s">
+        <v>983</v>
+      </c>
+      <c r="C728">
+        <v>0</v>
+      </c>
+      <c r="D728">
+        <v>8</v>
+      </c>
+      <c r="E728">
+        <v>137</v>
+      </c>
+      <c r="F728">
+        <v>1</v>
+      </c>
+      <c r="G728">
+        <v>0</v>
+      </c>
+      <c r="H728">
+        <v>0</v>
+      </c>
+      <c r="I728">
+        <v>1</v>
+      </c>
+      <c r="J728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A729" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B729" t="s">
+        <v>981</v>
+      </c>
+      <c r="C729">
+        <v>0</v>
+      </c>
+      <c r="D729">
+        <v>8</v>
+      </c>
+      <c r="E729">
+        <v>137</v>
+      </c>
+      <c r="F729">
+        <v>1</v>
+      </c>
+      <c r="G729">
+        <v>0</v>
+      </c>
+      <c r="H729">
+        <v>0</v>
+      </c>
+      <c r="I729">
+        <v>1</v>
+      </c>
+      <c r="J729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A730" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B730" t="s">
+        <v>979</v>
+      </c>
+      <c r="C730">
+        <v>0</v>
+      </c>
+      <c r="D730">
+        <v>8</v>
+      </c>
+      <c r="E730">
+        <v>137</v>
+      </c>
+      <c r="F730">
+        <v>1</v>
+      </c>
+      <c r="G730">
+        <v>0</v>
+      </c>
+      <c r="H730">
+        <v>0</v>
+      </c>
+      <c r="I730">
+        <v>1</v>
+      </c>
+      <c r="J730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A731" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B731" t="s">
+        <v>977</v>
+      </c>
+      <c r="C731">
+        <v>0</v>
+      </c>
+      <c r="D731">
+        <v>8</v>
+      </c>
+      <c r="E731">
+        <v>415</v>
+      </c>
+      <c r="F731">
+        <v>1</v>
+      </c>
+      <c r="G731">
+        <v>0</v>
+      </c>
+      <c r="H731">
+        <v>0</v>
+      </c>
+      <c r="I731">
+        <v>1</v>
+      </c>
+      <c r="J731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A732" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B732" t="s">
+        <v>975</v>
+      </c>
+      <c r="C732">
+        <v>0</v>
+      </c>
+      <c r="D732">
+        <v>8</v>
+      </c>
+      <c r="E732">
+        <v>415</v>
+      </c>
+      <c r="F732">
+        <v>1</v>
+      </c>
+      <c r="G732">
+        <v>0</v>
+      </c>
+      <c r="H732">
+        <v>0</v>
+      </c>
+      <c r="I732">
+        <v>1</v>
+      </c>
+      <c r="J732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A733" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B733" t="s">
+        <v>973</v>
+      </c>
+      <c r="C733">
+        <v>0</v>
+      </c>
+      <c r="D733">
+        <v>8</v>
+      </c>
+      <c r="E733">
+        <v>415</v>
+      </c>
+      <c r="F733">
+        <v>1</v>
+      </c>
+      <c r="G733">
+        <v>0</v>
+      </c>
+      <c r="H733">
+        <v>0</v>
+      </c>
+      <c r="I733">
+        <v>1</v>
+      </c>
+      <c r="J733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A734" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B734" t="s">
+        <v>971</v>
+      </c>
+      <c r="C734">
+        <v>0</v>
+      </c>
+      <c r="D734">
+        <v>8</v>
+      </c>
+      <c r="E734">
+        <v>71</v>
+      </c>
+      <c r="F734">
+        <v>1</v>
+      </c>
+      <c r="G734">
+        <v>0</v>
+      </c>
+      <c r="H734">
+        <v>0</v>
+      </c>
+      <c r="I734">
+        <v>1</v>
+      </c>
+      <c r="J734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A735" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B735" t="s">
+        <v>969</v>
+      </c>
+      <c r="C735">
+        <v>0</v>
+      </c>
+      <c r="D735">
+        <v>4</v>
+      </c>
+      <c r="E735">
+        <v>13</v>
+      </c>
+      <c r="F735">
+        <v>0</v>
+      </c>
+      <c r="G735">
+        <v>0</v>
+      </c>
+      <c r="H735">
+        <v>0</v>
+      </c>
+      <c r="I735">
+        <v>1</v>
+      </c>
+      <c r="J735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A736" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B736" t="s">
+        <v>967</v>
+      </c>
+      <c r="C736">
+        <v>0</v>
+      </c>
+      <c r="D736">
+        <v>8</v>
+      </c>
+      <c r="E736">
+        <v>71</v>
+      </c>
+      <c r="F736">
+        <v>1</v>
+      </c>
+      <c r="G736">
+        <v>0</v>
+      </c>
+      <c r="H736">
+        <v>0</v>
+      </c>
+      <c r="I736">
+        <v>1</v>
+      </c>
+      <c r="J736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A737" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B737" t="s">
+        <v>963</v>
+      </c>
+      <c r="C737">
+        <v>2</v>
+      </c>
+      <c r="D737">
+        <v>4</v>
+      </c>
+      <c r="E737">
+        <v>24</v>
+      </c>
+      <c r="F737">
+        <v>0</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737">
+        <v>0</v>
+      </c>
+      <c r="I737">
+        <v>1</v>
+      </c>
+      <c r="J737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A738" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B738" t="s">
+        <v>965</v>
+      </c>
+      <c r="C738">
+        <v>0</v>
+      </c>
+      <c r="D738">
+        <v>4</v>
+      </c>
+      <c r="E738">
+        <v>24</v>
+      </c>
+      <c r="F738">
+        <v>0</v>
+      </c>
+      <c r="G738">
+        <v>0</v>
+      </c>
+      <c r="H738">
+        <v>0</v>
+      </c>
+      <c r="I738">
+        <v>1</v>
+      </c>
+      <c r="J738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A739" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B739" t="s">
+        <v>961</v>
+      </c>
+      <c r="C739">
+        <v>2</v>
+      </c>
+      <c r="D739">
+        <v>4</v>
+      </c>
+      <c r="E739">
+        <v>24</v>
+      </c>
+      <c r="F739">
+        <v>0</v>
+      </c>
+      <c r="G739">
+        <v>0</v>
+      </c>
+      <c r="H739">
+        <v>0</v>
+      </c>
+      <c r="I739">
+        <v>1</v>
+      </c>
+      <c r="J739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A740" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B740" t="s">
+        <v>963</v>
+      </c>
+      <c r="C740">
+        <v>2</v>
+      </c>
+      <c r="D740">
+        <v>4</v>
+      </c>
+      <c r="E740">
+        <v>24</v>
+      </c>
+      <c r="F740">
+        <v>0</v>
+      </c>
+      <c r="G740">
+        <v>0</v>
+      </c>
+      <c r="H740">
+        <v>0</v>
+      </c>
+      <c r="I740">
+        <v>1</v>
+      </c>
+      <c r="J740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A741" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B741" t="s">
+        <v>961</v>
+      </c>
+      <c r="C741">
+        <v>2</v>
+      </c>
+      <c r="D741">
+        <v>4</v>
+      </c>
+      <c r="E741">
+        <v>24</v>
+      </c>
+      <c r="F741">
+        <v>0</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741">
+        <v>0</v>
+      </c>
+      <c r="I741">
+        <v>1</v>
+      </c>
+      <c r="J741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A742" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B742" t="s">
+        <v>959</v>
+      </c>
+      <c r="C742">
+        <v>0</v>
+      </c>
+      <c r="D742">
+        <v>4</v>
+      </c>
+      <c r="E742">
+        <v>24</v>
+      </c>
+      <c r="F742">
+        <v>0</v>
+      </c>
+      <c r="G742">
+        <v>0</v>
+      </c>
+      <c r="H742">
+        <v>0</v>
+      </c>
+      <c r="I742">
+        <v>1</v>
+      </c>
+      <c r="J742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A743" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B743" t="s">
+        <v>957</v>
+      </c>
+      <c r="C743">
+        <v>0</v>
+      </c>
+      <c r="D743">
+        <v>8</v>
+      </c>
+      <c r="E743">
+        <v>139</v>
+      </c>
+      <c r="F743">
+        <v>0</v>
+      </c>
+      <c r="G743">
+        <v>0</v>
+      </c>
+      <c r="H743">
+        <v>0</v>
+      </c>
+      <c r="I743">
+        <v>1</v>
+      </c>
+      <c r="J743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A744" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B744" t="s">
+        <v>955</v>
+      </c>
+      <c r="C744">
+        <v>2</v>
+      </c>
+      <c r="D744">
+        <v>7</v>
+      </c>
+      <c r="E744">
+        <v>0</v>
+      </c>
+      <c r="F744">
+        <v>0</v>
+      </c>
+      <c r="G744">
+        <v>0</v>
+      </c>
+      <c r="H744">
+        <v>0</v>
+      </c>
+      <c r="I744">
+        <v>1</v>
+      </c>
+      <c r="J744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A745" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B745" t="s">
+        <v>953</v>
+      </c>
+      <c r="C745">
+        <v>0</v>
+      </c>
+      <c r="D745">
+        <v>8</v>
+      </c>
+      <c r="E745">
+        <v>139</v>
+      </c>
+      <c r="F745">
+        <v>0</v>
+      </c>
+      <c r="G745">
+        <v>0</v>
+      </c>
+      <c r="H745">
+        <v>0</v>
+      </c>
+      <c r="I745">
+        <v>1</v>
+      </c>
+      <c r="J745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A746" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B746" t="s">
+        <v>951</v>
+      </c>
+      <c r="C746">
+        <v>0</v>
+      </c>
+      <c r="D746">
+        <v>8</v>
+      </c>
+      <c r="E746">
+        <v>166</v>
+      </c>
+      <c r="F746">
+        <v>0</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
+      </c>
+      <c r="H746">
+        <v>0</v>
+      </c>
+      <c r="I746">
+        <v>1</v>
+      </c>
+      <c r="J746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A747" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B747" t="s">
+        <v>949</v>
+      </c>
+      <c r="C747">
+        <v>2</v>
+      </c>
+      <c r="D747">
+        <v>8</v>
+      </c>
+      <c r="E747">
+        <v>166</v>
+      </c>
+      <c r="F747">
+        <v>0</v>
+      </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+      <c r="I747">
+        <v>1</v>
+      </c>
+      <c r="J747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A748" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B748" t="s">
+        <v>947</v>
+      </c>
+      <c r="C748">
+        <v>2</v>
+      </c>
+      <c r="D748">
+        <v>8</v>
+      </c>
+      <c r="E748">
+        <v>166</v>
+      </c>
+      <c r="F748">
+        <v>0</v>
+      </c>
+      <c r="G748">
+        <v>0</v>
+      </c>
+      <c r="H748">
+        <v>0</v>
+      </c>
+      <c r="I748">
+        <v>1</v>
+      </c>
+      <c r="J748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A749" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B749" t="s">
+        <v>945</v>
+      </c>
+      <c r="C749">
+        <v>0</v>
+      </c>
+      <c r="D749">
+        <v>6</v>
+      </c>
+      <c r="E749">
+        <v>28</v>
+      </c>
+      <c r="F749">
+        <v>0</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>0</v>
+      </c>
+      <c r="I749">
+        <v>1</v>
+      </c>
+      <c r="J749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A750" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B750" t="s">
+        <v>943</v>
+      </c>
+      <c r="C750">
+        <v>0</v>
+      </c>
+      <c r="D750">
+        <v>6</v>
+      </c>
+      <c r="E750">
+        <v>28</v>
+      </c>
+      <c r="F750">
+        <v>0</v>
+      </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+      <c r="I750">
+        <v>1</v>
+      </c>
+      <c r="J750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A751" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B751" t="s">
+        <v>941</v>
+      </c>
+      <c r="C751">
+        <v>0</v>
+      </c>
+      <c r="D751">
+        <v>6</v>
+      </c>
+      <c r="E751">
+        <v>28</v>
+      </c>
+      <c r="F751">
+        <v>0</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+      <c r="I751">
+        <v>1</v>
+      </c>
+      <c r="J751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A752" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B752" t="s">
+        <v>939</v>
+      </c>
+      <c r="C752">
+        <v>0</v>
+      </c>
+      <c r="D752">
+        <v>8</v>
+      </c>
+      <c r="E752">
+        <v>1740</v>
+      </c>
+      <c r="F752">
+        <v>0</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752">
+        <v>0</v>
+      </c>
+      <c r="I752">
+        <v>1</v>
+      </c>
+      <c r="J752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A753" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B753" t="s">
+        <v>937</v>
+      </c>
+      <c r="C753">
+        <v>0</v>
+      </c>
+      <c r="D753">
+        <v>8</v>
+      </c>
+      <c r="E753">
+        <v>1740</v>
+      </c>
+      <c r="F753">
+        <v>0</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
+      <c r="I753">
+        <v>1</v>
+      </c>
+      <c r="J753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A754" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B754" t="s">
+        <v>935</v>
+      </c>
+      <c r="C754">
+        <v>0</v>
+      </c>
+      <c r="D754">
+        <v>8</v>
+      </c>
+      <c r="E754">
+        <v>1740</v>
+      </c>
+      <c r="F754">
+        <v>0</v>
+      </c>
+      <c r="G754">
+        <v>0</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+      <c r="I754">
+        <v>1</v>
+      </c>
+      <c r="J754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A755" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B755" t="s">
+        <v>933</v>
+      </c>
+      <c r="C755">
+        <v>0</v>
+      </c>
+      <c r="D755">
+        <v>8</v>
+      </c>
+      <c r="E755">
+        <v>1141</v>
+      </c>
+      <c r="F755">
+        <v>0</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
+      <c r="I755">
+        <v>1</v>
+      </c>
+      <c r="J755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A756" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B756" t="s">
+        <v>931</v>
+      </c>
+      <c r="C756">
+        <v>0</v>
+      </c>
+      <c r="D756">
+        <v>8</v>
+      </c>
+      <c r="E756">
+        <v>1141</v>
+      </c>
+      <c r="F756">
+        <v>0</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
+        <v>1</v>
+      </c>
+      <c r="J756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A757" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B757" t="s">
+        <v>929</v>
+      </c>
+      <c r="C757">
+        <v>0</v>
+      </c>
+      <c r="D757">
+        <v>8</v>
+      </c>
+      <c r="E757">
+        <v>1141</v>
+      </c>
+      <c r="F757">
+        <v>0</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="H757">
+        <v>0</v>
+      </c>
+      <c r="I757">
+        <v>1</v>
+      </c>
+      <c r="J757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A758" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B758" t="s">
+        <v>927</v>
+      </c>
+      <c r="C758">
+        <v>0</v>
+      </c>
+      <c r="D758">
+        <v>5</v>
+      </c>
+      <c r="E758">
+        <v>2</v>
+      </c>
+      <c r="F758">
+        <v>0</v>
+      </c>
+      <c r="G758">
+        <v>1</v>
+      </c>
+      <c r="H758">
+        <v>0</v>
+      </c>
+      <c r="I758">
+        <v>1</v>
+      </c>
+      <c r="J758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>926</v>
+      </c>
+      <c r="B759" t="s">
+        <v>925</v>
+      </c>
+      <c r="C759">
+        <v>2</v>
+      </c>
+      <c r="D759">
+        <v>6</v>
+      </c>
+      <c r="E759">
+        <v>28</v>
+      </c>
+      <c r="F759">
+        <v>0</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+      <c r="I759">
+        <v>0</v>
+      </c>
+      <c r="J759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A760" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B760" t="s">
+        <v>923</v>
+      </c>
+      <c r="C760">
+        <v>0</v>
+      </c>
+      <c r="D760">
+        <v>6</v>
+      </c>
+      <c r="E760">
+        <v>28</v>
+      </c>
+      <c r="F760">
+        <v>0</v>
+      </c>
+      <c r="G760">
+        <v>0</v>
+      </c>
+      <c r="H760">
+        <v>0</v>
+      </c>
+      <c r="I760">
+        <v>1</v>
+      </c>
+      <c r="J760">
         <v>0</v>
       </c>
     </row>
@@ -21751,6 +29099,197 @@
     <hyperlink ref="A561" r:id="rId546" xr:uid="{5DA0CDD7-5111-482E-ABB7-E3430D4CE1A6}"/>
     <hyperlink ref="A562" r:id="rId547" xr:uid="{205E844B-32ED-4018-8906-468072888117}"/>
     <hyperlink ref="A563" r:id="rId548" xr:uid="{486E30DA-A3FD-4D54-9D1D-3938459D3D38}"/>
+    <hyperlink ref="A564" r:id="rId549" xr:uid="{7AAD0B1A-7AB3-41BB-B553-A8B9337EB654}"/>
+    <hyperlink ref="A565" r:id="rId550" xr:uid="{702DFC45-95BC-48B9-9B5E-089110DC23B1}"/>
+    <hyperlink ref="A566" r:id="rId551" xr:uid="{CF265B69-B658-429E-B8EC-AC3980119ABE}"/>
+    <hyperlink ref="A567" r:id="rId552" xr:uid="{5825F43A-50CC-4144-9A18-A630DD28CE59}"/>
+    <hyperlink ref="A568" r:id="rId553" xr:uid="{3554477C-617C-421E-80C8-DD53C7AA1FC8}"/>
+    <hyperlink ref="A569" r:id="rId554" xr:uid="{B28616AA-41CA-426D-8A42-38EF1660285A}"/>
+    <hyperlink ref="A570" r:id="rId555" xr:uid="{F1A79D33-0943-4C13-9874-523BCE90FFB6}"/>
+    <hyperlink ref="A571" r:id="rId556" xr:uid="{5DB458F3-F70B-4899-AB12-E2612AADD330}"/>
+    <hyperlink ref="A572" r:id="rId557" xr:uid="{BEEF52DD-4BBE-4792-B788-7AB15FC5626F}"/>
+    <hyperlink ref="A573" r:id="rId558" xr:uid="{2FE73031-BDD2-4E36-9BBD-2F7DB848638C}"/>
+    <hyperlink ref="A574" r:id="rId559" xr:uid="{3D1F9BCB-BB8C-4C85-8F16-EAAD525CA1A6}"/>
+    <hyperlink ref="A575" r:id="rId560" xr:uid="{F0A53E16-D818-4F6F-BB24-BDA439848C13}"/>
+    <hyperlink ref="A576" r:id="rId561" xr:uid="{C03FF27F-3E01-4715-B12F-0530F17D0B67}"/>
+    <hyperlink ref="A577" r:id="rId562" xr:uid="{752A3953-6FF7-43AF-B441-5FBF42847824}"/>
+    <hyperlink ref="A578" r:id="rId563" xr:uid="{8AFC838F-5875-4797-8AD2-459617BF4ABB}"/>
+    <hyperlink ref="A579" r:id="rId564" xr:uid="{7267A11B-71A3-4667-B7C2-582748C29187}"/>
+    <hyperlink ref="A580" r:id="rId565" xr:uid="{985FB215-E9F5-4E9D-9597-7914C320B4B0}"/>
+    <hyperlink ref="A581" r:id="rId566" xr:uid="{9B5991EE-0031-42DC-93BB-88AFA14C5FE4}"/>
+    <hyperlink ref="A582" r:id="rId567" xr:uid="{5588CBB5-0824-4695-A73F-37B94B70CD26}"/>
+    <hyperlink ref="A583" r:id="rId568" xr:uid="{1CE9577A-A220-45E0-9585-E2726AE95454}"/>
+    <hyperlink ref="A584" r:id="rId569" xr:uid="{F3DE63C0-6439-490F-A663-8DE57F587EF8}"/>
+    <hyperlink ref="A585" r:id="rId570" xr:uid="{49EA63BE-838F-4854-BB68-56DBAB8AA314}"/>
+    <hyperlink ref="A586" r:id="rId571" xr:uid="{688298AE-0168-4BEC-AC01-C4DF5ECC0360}"/>
+    <hyperlink ref="A587" r:id="rId572" xr:uid="{0F40288B-B785-4DE1-8A9D-0C50122840F9}"/>
+    <hyperlink ref="A588" r:id="rId573" xr:uid="{AF3FA096-D090-41EF-B563-297D1DDE2237}"/>
+    <hyperlink ref="A589" r:id="rId574" xr:uid="{1BD2DF0B-0F63-4AB2-9006-7A9178C59F52}"/>
+    <hyperlink ref="A590" r:id="rId575" xr:uid="{2751A86D-5ABB-4D99-8E9F-ADA2FDC6ED61}"/>
+    <hyperlink ref="A591" r:id="rId576" xr:uid="{CD2C7C57-2811-4BBA-B846-C599C263A660}"/>
+    <hyperlink ref="A592" r:id="rId577" xr:uid="{D750995A-C43C-43E3-A829-2901E59B62AA}"/>
+    <hyperlink ref="A593" r:id="rId578" xr:uid="{EC840449-BFF6-4639-91E7-2B0E8D123C98}"/>
+    <hyperlink ref="A594" r:id="rId579" xr:uid="{9F451C31-0965-4B7A-8BF1-33A187362073}"/>
+    <hyperlink ref="A595" r:id="rId580" xr:uid="{2DF240FB-6672-45CD-8F5E-42829C464E09}"/>
+    <hyperlink ref="A596" r:id="rId581" xr:uid="{E5125B5E-1D8D-40FC-BA74-D143998E10DD}"/>
+    <hyperlink ref="A597" r:id="rId582" xr:uid="{765B0613-94F7-4FDF-9F2F-559BACD6592A}"/>
+    <hyperlink ref="A598" r:id="rId583" xr:uid="{15F55292-FA57-4C58-BCA3-6FA28A1032E5}"/>
+    <hyperlink ref="A599" r:id="rId584" xr:uid="{48C2CBB9-62F4-4119-B673-89DD40A7F794}"/>
+    <hyperlink ref="A600" r:id="rId585" xr:uid="{E5C57B05-2380-425C-8E6E-57ED4D2C4B36}"/>
+    <hyperlink ref="A601" r:id="rId586" xr:uid="{99ABC96A-CF47-49B4-984F-F62087D270A9}"/>
+    <hyperlink ref="A602" r:id="rId587" xr:uid="{15279AEA-F531-4539-A400-2553FE2C9864}"/>
+    <hyperlink ref="A603" r:id="rId588" xr:uid="{C5B8884E-1C2F-411E-AC27-662491708CAC}"/>
+    <hyperlink ref="A604" r:id="rId589" xr:uid="{C045EBCB-A732-4EB1-A9DB-903CBDCFDA31}"/>
+    <hyperlink ref="A605" r:id="rId590" xr:uid="{16430B31-23AB-4CD8-9E0F-5915EC6B2D5E}"/>
+    <hyperlink ref="A606" r:id="rId591" xr:uid="{B63FF5C9-53D6-4D01-9A0D-820111B6B3A2}"/>
+    <hyperlink ref="A607" r:id="rId592" xr:uid="{F8A31DD2-17F0-4F68-80B4-7601822818FC}"/>
+    <hyperlink ref="A608" r:id="rId593" xr:uid="{C36FDC78-9204-4B86-9C2D-343B8C45FEBB}"/>
+    <hyperlink ref="A609" r:id="rId594" xr:uid="{6B7B3046-22C7-421A-B0FB-94EF607B309C}"/>
+    <hyperlink ref="A610" r:id="rId595" xr:uid="{9CB79439-5385-4FBF-AE92-103AD354A94A}"/>
+    <hyperlink ref="A611" r:id="rId596" xr:uid="{F2DE6EE1-F9AE-4D8D-9FC8-BEB6F0813E6C}"/>
+    <hyperlink ref="A612" r:id="rId597" xr:uid="{1E7824A9-309E-48E8-98DE-088D27305B72}"/>
+    <hyperlink ref="A613" r:id="rId598" xr:uid="{57378207-5987-426B-AA6C-EA8178000666}"/>
+    <hyperlink ref="A614" r:id="rId599" xr:uid="{FBC4B64A-B8A1-42D0-BFD3-65F8F99ACED5}"/>
+    <hyperlink ref="A615" r:id="rId600" xr:uid="{A39018EA-06DC-4EBE-8866-EE25C4A588F0}"/>
+    <hyperlink ref="A616" r:id="rId601" xr:uid="{F0B17958-949A-4415-8473-CCCC944556FE}"/>
+    <hyperlink ref="A617" r:id="rId602" xr:uid="{D74908A3-8C28-4BF7-9EC3-1D90349D5481}"/>
+    <hyperlink ref="A618" r:id="rId603" xr:uid="{88FDEE70-A098-41B0-9578-1D6DCCD891A2}"/>
+    <hyperlink ref="A619" r:id="rId604" xr:uid="{BB9EDBFB-F415-4353-AB6B-19A17B5DDB1E}"/>
+    <hyperlink ref="A620" r:id="rId605" xr:uid="{6C0426DE-7ED8-4128-9910-038F561461F9}"/>
+    <hyperlink ref="A621" r:id="rId606" xr:uid="{AD10299F-0B83-466B-90A9-2DA50DB083C3}"/>
+    <hyperlink ref="A622" r:id="rId607" xr:uid="{DD04550B-E998-4542-9FA2-DE7264196916}"/>
+    <hyperlink ref="A623" r:id="rId608" xr:uid="{B1B8830D-D2C0-4DF6-BF9B-472244F8214D}"/>
+    <hyperlink ref="A624" r:id="rId609" xr:uid="{7DF4AD05-18D8-4F3E-B578-5A859715E1DE}"/>
+    <hyperlink ref="A625" r:id="rId610" xr:uid="{3035AC64-1FAC-43C7-B36C-9F17B647F4DD}"/>
+    <hyperlink ref="A626" r:id="rId611" xr:uid="{259ED093-7135-4EA3-A20B-6321794B1CD0}"/>
+    <hyperlink ref="A627" r:id="rId612" xr:uid="{20AA253E-0C30-4E9F-8CB1-E2502311FCB7}"/>
+    <hyperlink ref="A628" r:id="rId613" xr:uid="{30F64ECB-E785-4CF9-A255-4B982F4A452F}"/>
+    <hyperlink ref="A629" r:id="rId614" xr:uid="{DA25DAE1-BCA0-4AFF-89FB-AAC266C470E3}"/>
+    <hyperlink ref="A630" r:id="rId615" xr:uid="{E0EC097C-554E-4158-829A-C7DDB80B5AD7}"/>
+    <hyperlink ref="A631" r:id="rId616" xr:uid="{26B4597E-116E-407A-89C2-DF6D088666E8}"/>
+    <hyperlink ref="A632" r:id="rId617" xr:uid="{0318804D-C67D-4AA7-BCAC-BC5966EE7AE3}"/>
+    <hyperlink ref="A634" r:id="rId618" xr:uid="{8A834844-B510-4ACE-86DA-489F45B1EA71}"/>
+    <hyperlink ref="A635" r:id="rId619" xr:uid="{ED706547-263B-4A1B-B3A2-A1D97575B314}"/>
+    <hyperlink ref="A636" r:id="rId620" xr:uid="{E9D9EC75-9F5E-4EFE-B585-2B179FCEE505}"/>
+    <hyperlink ref="A637" r:id="rId621" xr:uid="{DB59F444-F001-410D-A770-1377A292A12F}"/>
+    <hyperlink ref="A638" r:id="rId622" xr:uid="{C7CA7AAC-7FBA-4C72-B720-39D4AD125409}"/>
+    <hyperlink ref="A639" r:id="rId623" xr:uid="{D891A497-86F9-4F4A-812D-B677FCB52AEF}"/>
+    <hyperlink ref="A640" r:id="rId624" xr:uid="{55D701B2-7B40-439A-894D-9038983B4644}"/>
+    <hyperlink ref="A641" r:id="rId625" xr:uid="{238A870B-5D1A-42AA-A551-592DEC7A1B42}"/>
+    <hyperlink ref="A642" r:id="rId626" xr:uid="{6E5DA67C-087B-4C18-A1DA-7E96E467610E}"/>
+    <hyperlink ref="A643" r:id="rId627" xr:uid="{2915CE09-DA40-464C-A6DA-42EB6C0980CA}"/>
+    <hyperlink ref="A644" r:id="rId628" xr:uid="{65F98028-F631-41DA-8E1D-054627F42B77}"/>
+    <hyperlink ref="A645" r:id="rId629" xr:uid="{548C1407-DD5F-4CF0-81C0-0C143DADDF96}"/>
+    <hyperlink ref="A646" r:id="rId630" xr:uid="{4AC9F837-B604-4EDD-9D9A-201305F728F6}"/>
+    <hyperlink ref="A647" r:id="rId631" xr:uid="{AE51487B-AE5A-4601-90EF-289F6F74EC36}"/>
+    <hyperlink ref="A648" r:id="rId632" xr:uid="{CF15C11F-3A76-471E-80FC-7587733EFF30}"/>
+    <hyperlink ref="A649" r:id="rId633" xr:uid="{C1A15CED-89C9-4FD2-8A6C-0C6B8F27EFB3}"/>
+    <hyperlink ref="A650" r:id="rId634" xr:uid="{DAE1B18B-E2C3-470C-9C88-27D8D252D693}"/>
+    <hyperlink ref="A651" r:id="rId635" xr:uid="{1A17FF0A-F9CD-4C36-BE11-6638F0119E41}"/>
+    <hyperlink ref="A652" r:id="rId636" xr:uid="{A40ABFEA-94FD-4FBD-B006-AF73B7BE88D0}"/>
+    <hyperlink ref="A653" r:id="rId637" xr:uid="{25A18434-07F9-4541-8953-C23325B0C076}"/>
+    <hyperlink ref="A654" r:id="rId638" xr:uid="{C2BD0CB0-F63E-4BCB-8C25-660A801498FF}"/>
+    <hyperlink ref="A655" r:id="rId639" xr:uid="{35CD6419-E18B-411B-A170-5A01D51F63FC}"/>
+    <hyperlink ref="A656" r:id="rId640" xr:uid="{5029306E-6750-4494-911D-422CB9E627C2}"/>
+    <hyperlink ref="A657" r:id="rId641" xr:uid="{9095A5ED-ADF7-4250-946F-89C6E3929445}"/>
+    <hyperlink ref="A658" r:id="rId642" xr:uid="{77B1FF3C-2683-41F2-8599-E7698DF338C8}"/>
+    <hyperlink ref="A659" r:id="rId643" location="zjlist" xr:uid="{01F9F4A1-18BA-4E8B-955F-7F2B9FC07DE9}"/>
+    <hyperlink ref="A660" r:id="rId644" xr:uid="{0A038DEB-5478-40FB-A0A0-BC7BD238E703}"/>
+    <hyperlink ref="A661" r:id="rId645" xr:uid="{0E75EC89-17C6-4E26-89FC-60CEA6D6A765}"/>
+    <hyperlink ref="A662" r:id="rId646" xr:uid="{803A15DC-0274-4B11-89AD-36D738F32428}"/>
+    <hyperlink ref="A663" r:id="rId647" xr:uid="{B38871F4-1F21-4A8B-A11C-3FCB4229507E}"/>
+    <hyperlink ref="A664" r:id="rId648" xr:uid="{2001D1E6-5E2E-4960-9745-8CDAAD8F0A66}"/>
+    <hyperlink ref="A665" r:id="rId649" xr:uid="{8CB386D9-68C9-4903-94E8-516FBB669FF3}"/>
+    <hyperlink ref="A666" r:id="rId650" xr:uid="{A874422D-ABB0-4149-8F8B-653E407BEA3B}"/>
+    <hyperlink ref="A667" r:id="rId651" xr:uid="{B116403D-9A3A-4E69-86DE-5E840E96EEB7}"/>
+    <hyperlink ref="A668" r:id="rId652" xr:uid="{6447983A-E070-4BA6-9E9B-DAD63E68406B}"/>
+    <hyperlink ref="A669" r:id="rId653" xr:uid="{95D33623-BE5A-4183-8EEB-C7B9907563CA}"/>
+    <hyperlink ref="A670" r:id="rId654" xr:uid="{BEF3C0AE-6C7C-437F-A19B-2F2F8A0A39FF}"/>
+    <hyperlink ref="A671" r:id="rId655" xr:uid="{59081D2B-36CB-47B0-882D-EDBE5C63C618}"/>
+    <hyperlink ref="A672" r:id="rId656" xr:uid="{DF369375-4D64-45B4-8A42-CDFA2FD9F49C}"/>
+    <hyperlink ref="A673" r:id="rId657" xr:uid="{90FB7B98-9288-428D-B500-C23D82FABD03}"/>
+    <hyperlink ref="A674" r:id="rId658" xr:uid="{E3258F85-E58D-48E1-80CE-40F9C6FC85DF}"/>
+    <hyperlink ref="A675" r:id="rId659" xr:uid="{F5BECA23-B30E-4175-8439-4E041BF853A1}"/>
+    <hyperlink ref="A676" r:id="rId660" xr:uid="{207B3E43-EBDB-4A1C-86DB-A55EB2265C98}"/>
+    <hyperlink ref="A677" r:id="rId661" xr:uid="{4F75DACD-759F-454F-8372-37E558896952}"/>
+    <hyperlink ref="A678" r:id="rId662" xr:uid="{E68E421F-553E-4BF2-845B-6D42BAA582DE}"/>
+    <hyperlink ref="A679" r:id="rId663" xr:uid="{7CBD8B5B-9FA9-4D17-B76F-C94C7CDA05CE}"/>
+    <hyperlink ref="A680" r:id="rId664" xr:uid="{F008A929-77E4-48A8-B44D-367E7940A96C}"/>
+    <hyperlink ref="A681" r:id="rId665" xr:uid="{F4C8FFA4-574E-4A08-87D6-7AF086F5DD68}"/>
+    <hyperlink ref="A682" r:id="rId666" xr:uid="{BBEB73D1-01C4-434D-9BEB-47C56831353E}"/>
+    <hyperlink ref="A683" r:id="rId667" xr:uid="{849D1716-AF68-4DB6-9960-AE6A59010741}"/>
+    <hyperlink ref="A684" r:id="rId668" xr:uid="{994FF5A7-1B16-49FA-A213-937D88F36FE9}"/>
+    <hyperlink ref="A685" r:id="rId669" xr:uid="{12070241-D94F-4028-813B-9ADDEE07CBB9}"/>
+    <hyperlink ref="A686" r:id="rId670" xr:uid="{F734C6A0-1BBD-4438-9510-3C271DE4DB78}"/>
+    <hyperlink ref="A687" r:id="rId671" xr:uid="{E80C9FF4-462B-4EEF-97EC-24F1C02BDA27}"/>
+    <hyperlink ref="A688" r:id="rId672" xr:uid="{D091CDCB-535C-4F92-8198-A036473DF1AA}"/>
+    <hyperlink ref="A689" r:id="rId673" xr:uid="{229308E8-AC1F-4CD5-943C-B25EDC5B88DD}"/>
+    <hyperlink ref="A690" r:id="rId674" xr:uid="{19DA08AB-C3E5-4476-B8B4-17DFECBDAB4D}"/>
+    <hyperlink ref="A691" r:id="rId675" xr:uid="{B265D20C-40B0-4A80-8B98-5F19DAA1192E}"/>
+    <hyperlink ref="A692" r:id="rId676" xr:uid="{BFFA07F3-4E9D-4E9B-9FFF-01CAA8A12F51}"/>
+    <hyperlink ref="A693" r:id="rId677" xr:uid="{671A581E-4E9A-4394-9950-73B793B5E9F1}"/>
+    <hyperlink ref="A694" r:id="rId678" xr:uid="{E6A475D1-CEAB-46D0-9CF9-E5C4590DF1C4}"/>
+    <hyperlink ref="A695" r:id="rId679" xr:uid="{7921EDAF-B6B4-4044-BDAE-A1F9464C9284}"/>
+    <hyperlink ref="A696" r:id="rId680" xr:uid="{08B9672B-EB98-4BC8-93C1-E6C031B6A26A}"/>
+    <hyperlink ref="A697" r:id="rId681" xr:uid="{F7A1F1EF-E999-411B-AF4D-A832D467E3E0}"/>
+    <hyperlink ref="A698" r:id="rId682" xr:uid="{A3883CB4-8B33-4DCF-8175-BA782215C8F5}"/>
+    <hyperlink ref="A699" r:id="rId683" xr:uid="{A98DDDC4-3F1B-42AC-B170-1BED8DF3CC86}"/>
+    <hyperlink ref="A700" r:id="rId684" xr:uid="{B28902B6-0F57-49D3-8140-FCF87E420C13}"/>
+    <hyperlink ref="A701" r:id="rId685" xr:uid="{B2C210F9-EF18-4071-87FA-78E273EFC0D4}"/>
+    <hyperlink ref="A702" r:id="rId686" xr:uid="{E8B241CE-C8CA-4C17-9236-CA7F697354BB}"/>
+    <hyperlink ref="A703" r:id="rId687" xr:uid="{733B9CBA-30EC-49C0-81AC-CC7AE453BED1}"/>
+    <hyperlink ref="A704" r:id="rId688" xr:uid="{4262A757-4DAB-4E48-8C97-9434BB5672D9}"/>
+    <hyperlink ref="A705" r:id="rId689" xr:uid="{5963A0C5-098E-4549-82D8-A31AE8BED9CF}"/>
+    <hyperlink ref="A706" r:id="rId690" xr:uid="{6B3ECBCC-A12B-4200-8AC5-A26A2B59309C}"/>
+    <hyperlink ref="A707" r:id="rId691" xr:uid="{0D792C64-FDDA-41CB-AC48-C0224B1DE380}"/>
+    <hyperlink ref="A708" r:id="rId692" xr:uid="{B60C7A75-4171-46DB-8EA2-14264A4D4069}"/>
+    <hyperlink ref="A709" r:id="rId693" xr:uid="{4AB33C28-6CD0-43F4-9D7B-0ED28DA4F8D4}"/>
+    <hyperlink ref="A710" r:id="rId694" xr:uid="{121A4772-C8EB-4A86-9DA9-F1C649C43C3A}"/>
+    <hyperlink ref="A711" r:id="rId695" xr:uid="{14F3B05F-448C-4C19-BE6D-C7C759023308}"/>
+    <hyperlink ref="A712" r:id="rId696" xr:uid="{5D791423-6F41-4F69-9B24-68E70F6BB152}"/>
+    <hyperlink ref="A713" r:id="rId697" xr:uid="{50F57791-3B1B-45BD-97BD-9640A681D753}"/>
+    <hyperlink ref="A714" r:id="rId698" xr:uid="{3D27CDC6-1CEA-427E-BF46-BBF3B222A9F6}"/>
+    <hyperlink ref="A715" r:id="rId699" xr:uid="{9A7C388E-B061-40BD-9F36-0392F54184EE}"/>
+    <hyperlink ref="A716" r:id="rId700" xr:uid="{4929C5E1-F273-43FF-B4B7-45F1C54418A5}"/>
+    <hyperlink ref="A717" r:id="rId701" xr:uid="{F42448D1-37D6-4AF8-9098-62B5184354E3}"/>
+    <hyperlink ref="A720" r:id="rId702" xr:uid="{383B7217-65A5-4522-8B62-73906DDB0A96}"/>
+    <hyperlink ref="A722" r:id="rId703" xr:uid="{77E4E545-3F0C-4BAF-8C2E-8577423D13F7}"/>
+    <hyperlink ref="A724" r:id="rId704" xr:uid="{A40057BB-B09B-4863-B101-30A1557CA75E}"/>
+    <hyperlink ref="A725" r:id="rId705" xr:uid="{4D5599A1-F717-4365-BA91-B90B141CC0C1}"/>
+    <hyperlink ref="A726" r:id="rId706" xr:uid="{BE7BC031-5EF2-44F1-964B-318D6B93D157}"/>
+    <hyperlink ref="A727" r:id="rId707" xr:uid="{74F2C8B8-269A-42AF-B95E-168126D7744F}"/>
+    <hyperlink ref="A728" r:id="rId708" xr:uid="{AD3AE896-065A-457A-9FDA-4A5A2041A204}"/>
+    <hyperlink ref="A729" r:id="rId709" xr:uid="{F48D783B-9EFD-47D8-AD56-F7046995178E}"/>
+    <hyperlink ref="A730" r:id="rId710" xr:uid="{0F7CFB5D-F385-4500-BE2E-13840F53AD05}"/>
+    <hyperlink ref="A731" r:id="rId711" xr:uid="{17EEC13E-6654-46F1-A74D-9CD7AAC8120E}"/>
+    <hyperlink ref="A732" r:id="rId712" xr:uid="{9BA822AA-1F31-408C-9E74-D4C959691954}"/>
+    <hyperlink ref="A733" r:id="rId713" xr:uid="{B1C30292-B70A-41C6-A58B-51CA157FB48A}"/>
+    <hyperlink ref="A734" r:id="rId714" xr:uid="{C67F8C02-6B67-49A2-8C8A-74318E8FDA23}"/>
+    <hyperlink ref="A735" r:id="rId715" xr:uid="{5AB0A99E-D4FB-4341-A13A-EE615F77FFF3}"/>
+    <hyperlink ref="A736" r:id="rId716" xr:uid="{B186A26A-6402-4879-A681-857493DB0CE6}"/>
+    <hyperlink ref="A737" r:id="rId717" xr:uid="{ED198160-8348-4F5D-BF2C-9B9FD3D6CE9A}"/>
+    <hyperlink ref="A738" r:id="rId718" xr:uid="{32028239-B972-4B24-8A1A-F3B6B609EE0F}"/>
+    <hyperlink ref="A739" r:id="rId719" xr:uid="{0009C871-CA2C-4793-B69C-4BB1A7A89BC1}"/>
+    <hyperlink ref="A740" r:id="rId720" xr:uid="{A35B7210-BEB3-41D2-A3C6-7B7CA4A4FDEF}"/>
+    <hyperlink ref="A741" r:id="rId721" xr:uid="{E3BC3F15-97D7-4A54-8057-8CC74558B506}"/>
+    <hyperlink ref="A742" r:id="rId722" xr:uid="{DA421FD3-8661-4051-B9E8-7E3944BD10FA}"/>
+    <hyperlink ref="A743" r:id="rId723" xr:uid="{6590E6FE-B209-458B-8C9A-0A980E5B25E7}"/>
+    <hyperlink ref="A744" r:id="rId724" xr:uid="{D86C84B3-2869-422A-B2EB-E30E98D3EA56}"/>
+    <hyperlink ref="A745" r:id="rId725" xr:uid="{36BDB24D-537C-467D-A14F-1930DDEFFC99}"/>
+    <hyperlink ref="A746" r:id="rId726" xr:uid="{7815253B-46EE-42E3-99C1-C1402DCCB84F}"/>
+    <hyperlink ref="A747" r:id="rId727" xr:uid="{B7629E62-F5CE-48FB-BFED-C3C8939F08DF}"/>
+    <hyperlink ref="A748" r:id="rId728" xr:uid="{9D39AD74-E633-4C8D-B20C-1E95365840DA}"/>
+    <hyperlink ref="A749" r:id="rId729" xr:uid="{22707A92-5A28-495F-A7DA-656DA6CD246A}"/>
+    <hyperlink ref="A750" r:id="rId730" xr:uid="{73EBCA84-5BF3-490B-899B-84590B7494D1}"/>
+    <hyperlink ref="A751" r:id="rId731" xr:uid="{0EE0AECF-2F15-4077-8877-5B9F74645E48}"/>
+    <hyperlink ref="A752" r:id="rId732" xr:uid="{7BA9C564-87D0-40E5-888A-37C8BF9F2CE9}"/>
+    <hyperlink ref="A753" r:id="rId733" xr:uid="{C402259D-E12F-4AE7-BD6B-51FD0300E306}"/>
+    <hyperlink ref="A754" r:id="rId734" xr:uid="{6099C305-3AA5-461C-9F6F-73305E3F0201}"/>
+    <hyperlink ref="A755" r:id="rId735" xr:uid="{E002DD05-2B31-4A82-B542-A68389E8F822}"/>
+    <hyperlink ref="A756" r:id="rId736" xr:uid="{060E8F10-65A7-4DF8-A890-F573DC5C8FF8}"/>
+    <hyperlink ref="A757" r:id="rId737" xr:uid="{473609B6-9B82-4C39-ACB7-CBA269BCE2A6}"/>
+    <hyperlink ref="A758" r:id="rId738" xr:uid="{6805A9CF-16D7-4CA0-B6FD-AA530F696044}"/>
+    <hyperlink ref="A760" r:id="rId739" xr:uid="{6B2C345D-DDC0-4207-BE0B-A6E5F6FC2457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
